--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00153231</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Clinical Evaluation of Morbidity and Efficacy of Posterior IVS (Infracoccygeal Sacropexy), in Comparison to the Standard Sacrospinous Suspension in the Surgical Treatment of Vaginal Vault Prolapse by the Vaginal Route.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00370877</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Recombinant Human Activated Factor VII as Salvage Therapy in Women With Severe Postpartum Hemorrhage</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01189188</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ultrasound Guidance for Radial Arterial Blood Sampling</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00264589</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Effects of an Individualized Training Program on Cardiovascular Function at Rest and During Exercise in Obese and in Type 2 Diabetic Subjects</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -684,32 +709,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01644760</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Respiratory Variations in the Diameter of the Inferior Vena Cava With Spontaneous Ventilation: A Physiological Study on Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -728,36 +758,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT01167803</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Coming Out of Anesthesia After Bariatric Surgery : Desflurane Versus Xenon</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>XENON</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -776,32 +811,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01402765</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Interface Pressure Measures for Matresses: a Randomized, Cross-over, Non-inferiority Study Comparing the Nimbus 3 Versus Summit Matresses</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -820,36 +860,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03867071</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Early Administration of Recombinant Erythropoietin (RHEPO) in Transfusion Savings in Trauma Patients</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>EPREX</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -868,36 +913,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03614598</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Impact on Postoperative Pain of Three Single-use Adult Supraglottic Airway Devices in Short General Anesthetic Under Controlled Ventilation</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>DISPOSITIF LAR</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -916,36 +966,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01647802</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Cross-over Study of Three Modular Devices for Aid in Patient Standing and Transfer</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>VTT</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -964,36 +1019,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01647815</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Ultrasound Comparison of the Surface of the Subclavian Vein (Arm in Abduction (90°) and External Rotation (90 °)) and the Surface of the Axillary Vein (Arms Along the Body) Versus the Surface of the Subclavian Vein (Arm Along the Body)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>AnatoAbord</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1012,36 +1072,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01134588</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Assessment of Quality of Life in Disorders of the Pelvic Floor</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>U-GYN-QOL</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1060,36 +1125,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01087229</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Comparative Study of the Effectiveness of an Equimolar Oxygen-nitrous Oxide Mixture During Physical Therapy for Adhesive Shoulder Capsulitis</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>MEOPA</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1108,32 +1178,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01543360</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1152,36 +1227,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01795443</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Lumbar Proprioception in Lower Back Pain Patients Versus Healthy Subjects : a Comparative Study on the Effects of Low- and High-frequency Muscle Vibrations</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Vibrioception</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1200,36 +1280,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01390454</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>EPICORE</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1248,32 +1333,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT00153257</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1292,32 +1382,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01545089</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1336,36 +1431,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01800084</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Impact of Reconstruction Method (Adaptive Statistical Iterative Reconstruction, Filtered Back Projection) Used in Computed Tomography on Bone Single-Photon- Emission-Computed-Tomography/Computed-Tomography Image Quality</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>AsirTest</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1384,32 +1484,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01323049</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1428,32 +1533,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01292044</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>The Role of Elastography in the Diagnosis of Thyroid Nodules</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1472,32 +1582,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01259648</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1516,36 +1631,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02888158</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>LAPRA</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1564,36 +1684,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01746433</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Evaluation of the Mobility of Elderly Patients (&gt; 65 Years) When Using the "l'Ergonome" Mobility Device: a Randomized, Monocentric Study</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>L'ERGONOME</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1612,36 +1737,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01743105</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>EDDRA-Repro</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1660,36 +1790,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01785368</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Implementing Referral Guidelines for Imaging Exams Requested Via the Emergency Department: Impact on Exam Relevance and Associated Delays</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>RIU</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1708,36 +1843,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT01114347</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>NosoPink</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1756,36 +1896,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01750944</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Validation of the Measurement of a Systolic Pressure Index at the Toe (IPSO) After a Walking Test</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>IPSO FACTO</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1804,36 +1949,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01685645</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Does the Measurement of Pupillary Reactivity to Painful Stimulation by an Automated Pupillometer Determine the Effectiveness of Local Anesthesia When Undergoing General Anesthesia?</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ALGISCAN</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1852,32 +2002,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT01404819</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Evaluation of Brain Damage Resulting From Carotid Endarterectomy With Xenon Anesthesia</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1896,32 +2051,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01101087</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Efficacity of Taurolock in Preventing Primary Bacterial Peritonitis in Patients Undergoing Peritoneal Dialysis for Renal Insufficiency: a Randomized, Multicenter, Double Blind Study With Placebo</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1940,36 +2100,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02255994</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>PRO-CURE II</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1988,36 +2153,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01739426</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ZENKER LS</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2036,32 +2206,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01403220</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2080,36 +2255,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT01541059</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>RopiMol</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2128,36 +2308,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02329613</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Impact of the Introduction of a New Qualitative Composition of the Evening Meal on the Feeding Behavior of Institutionalized Residents of a Long-term Care Unit: a Randomized, Single Center Study</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>IRCAR</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2176,36 +2361,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT01819714</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>SensiCare</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2224,36 +2414,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02519764</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of a Hydration Protocol "at Thirst" on Natremia of the Ultra Trail du Mont-Blanc, 2015 Runners</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>NATRITRAIL</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2272,36 +2467,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02118259</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Impact of Multidisciplinary Review of Drug Prescriptions on Patient Safety in a Residence for Dependent Elderly</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Rev-EHPAD</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2320,36 +2520,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT01566058</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>BBBox</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2368,36 +2573,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02614638</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>OPTI-PP</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2416,36 +2626,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02059759</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Immuno-modulation in Amyotrophic Lateral Sclerosis- a Phase II Study of Safety and Activity of Low Dose Interleukin-2</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>IMODALS</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2464,36 +2679,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02610452</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>OUPS</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2512,36 +2732,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02598115</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>MEDREV</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2560,36 +2785,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT01649401</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Efficacy of the PARI LC Sprint Sp Nebulizer for Acute Asthma Attack in Hospitalized Children Less Than 36 Months of Age</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>LC SPRINT Sp</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2608,32 +2838,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT01559168</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2652,36 +2887,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT01789801</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>A Randomized Study Evaluating the Role of Ultra-sound Guidance When Drawing Radial Arterial Blood Samples</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>ECHO-PARDIF</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2700,36 +2940,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02380820</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Comparative Measurements of Interface Pressures Between Two Pressure-ulcer Prevention Mattresses: Softform Premier and Airsoft Duo</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>SPA2-INVACARE</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2748,36 +2993,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02664636</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>ERASM</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2796,36 +3046,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02392390</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>PDT-Bactério</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2844,36 +3099,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02636829</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>QALCIMUM</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2890,40 +3150,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2015-000060-34</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée 
  Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>VIDADO 
  VIDADO</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2938,36 +3203,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT02400151</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>VIDADO</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2986,36 +3256,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02614573</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>International Normalised Ratio Evaluation by Generalist Practitioners in Full-time Care Establishments for the Elderly: a Pilot Study</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>INR-Cap pilote</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3034,36 +3309,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02126930</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Impact of a Pharmaceutical Consultation at Hospital Discharge on Adherence to Anti-infective Treatment After Returning Home</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>CPS-INFECTIO</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3082,36 +3362,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02325063</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Leukocyte and Platelet Rich Plasma Versus Type a Botulinum Toxin Versus Glucocorticoids for the Treatment of Lateral Epicondylalgia: a Randomized, Multicenter, Double-blind, Therapeutic Trial with Three Parallel Arms</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>LET</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3130,32 +3415,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT01536301</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Evaluation of Oxycodone Hydrochloride Versus Intravenous Morphine Hydrochloride for Postoperative Analgesia After Hip Prosthetic Surgery</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3174,36 +3464,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02609191</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>STRATOS</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3222,36 +3517,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02614651</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>AUREVI 1</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3270,36 +3570,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02269020</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Unilateral Selective Neck Dissection at Lymph Node Levels IIa, III and IV Using a Robot-assisted Transaxillary Approach in Patients With Squamous Cell Carcinoma of the Epi-larynx: the First Three Patients</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>RoboCurage ORL</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3318,36 +3623,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02610647</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Functional Significance of Complexity Measures in the Sensory-motor Behavior: Are There Potential Clinical Applications?</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>NEURO COMP</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3366,36 +3676,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT01905644</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Verifying Anal Sphincter Integrity in the Delivery Room Using a Specific Perineal Ultrasound: Impact on Immediate Care and Postpartum Anal Incontinence Rates in Mothers Undergoing Vaginal Birth</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>OASIS 2</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3414,36 +3729,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02273687</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>EDDRAPro</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3462,36 +3782,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT04007302</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Modification de l'activité du Cortex préfrontal Induite Par Distraction en réalité Virtuelle Chez le Sujet Lombalgique Chronique.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>NGUYEN</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3510,28 +3835,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT01380860</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Primary Prevention of Peristomial Hernias Via Parietal Prostheses: a Randomized, Multicentric Study</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>GRECCAR 07</t>
         </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -3539,7 +3866,10 @@
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3558,36 +3888,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03356847</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Evaluation of the Rotational Stability of the Monofocal SISA Implant Following Cataract Surgery</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>SISALens</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3606,36 +3941,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT03162757</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>JI vs SC</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3654,36 +3994,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT03998930</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Brain-computer Interface in the Diagnosis of Disorders of Consciousness</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>AWAKE</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3702,36 +4047,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT03633578</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Relationship Between Complexity and Pain in a Walking Task With Distraction in the Chronic Low Back Pain Patient by Fractal Analysis: Pilot Study</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>CoDiLoBP</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3750,36 +4100,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02598141</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Comparative Evaluation of Two Techniques for the Treatment of Per-operative Bacteriological Samples Associated With Osteo-articular Sepsis: Grinding (Ultra Turrax) Versus Standard Methods</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>IOAP Turrax</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3798,36 +4153,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT01558856</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Prospective Randomized Trial Comparing Unilateral and Bilateral Neuromodulation Tests in the Treatment of Refractory Idiopathic Overactive Bladder</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>HAVIR Bi</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3846,36 +4206,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02583997</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>AlvéCare</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3894,32 +4259,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02805049</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Pharmacokinetic Study on Echinocandins for Patients With Septic Shock Following Secondary Peritonitis</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3938,36 +4308,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02116387</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>IMOOVE IT</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3986,36 +4361,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT02739880</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Evaluation of the Effect of Multi-point Intra-mucosal Injections of Cross-linked Hyaluronic Acid (DESIRIAL®) in the Vaginal Vestibule: A Prospective, Bicentric, Pilot Study</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>INREG 1</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4034,32 +4414,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02892227</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
         <is>
           <t>JECICA</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4078,36 +4463,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03244813</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of a Personalized Program of Adapted Physical Activates in Patients With Parkinson Disease</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>ACTIPARK</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4126,36 +4516,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT02299440</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Evaluation of the Effects of Ketamine in the Acute Phase of Suicidal Ideation: a Multicenter Randomized Double-blind Trial</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>KETIS</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4174,36 +4569,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT03603470</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Total Hip Arthroplasty Instability and Lumbo-pelvic Kinematics: EOS Imaging Assessment of Variation in Spinal and Pelvic Parameters From Standing to Sitting</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>HIPEOS</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4222,36 +4622,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT02932696</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>TrainStrain</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4270,36 +4675,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03407963</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>CAPEMBOL</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4318,36 +4728,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT04463147</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Does the Needle-pilot Device Improve the Success of Vascular Catheterization Compared to the Classical Ultrasound-guided Technique</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>NEEDLE-VISIO</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4364,40 +4779,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2014-005534-55</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques 
  Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>GenCInib-suni 
  GenCInib-suni</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4412,36 +4832,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT02664623</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>CalciCoach</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4460,36 +4885,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03868189</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>US ENMG</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4508,36 +4938,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT03564951</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Comparison of Ablation of Anisochronous Zones vs Spatio-temporal Dispersal Zones in Addition to Antral Electrical Isolation During Radiofrequency Treatment of Paroxysmal or Persistent Atrial Fibrillation</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>ISOCHRONE-AF</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4556,36 +4991,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT02304679</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Shock-ED</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4604,36 +5044,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT03562754</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial of Intermittent Hemodialysis With Regional Citrate Anticoagulation Versus Systemic Low Dose Heparin Anticoagulation in Patients at Risk of Bleeding in Nephrology Intensive Care Unit</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>ROBIN</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4652,36 +5097,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT04360304</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>AUTO-VTI</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4700,36 +5150,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT02683304</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>S100B-Céph</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4748,36 +5203,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT03600636</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>APS Follow Up</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4796,36 +5256,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT03628248</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Effect of Endovascular Inferior Mesenteric Artery Embolization on Colonic Perfusion Prior to Rectal Surgery for Rectal Tumor or Sigmoid Colon Surgery - A Single-center Feasibility Pilot Study.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>AMIREMBOL</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4844,36 +5309,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT03039673</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Low-dose IL-2 (Ld-IL-2) as a Treg Enhancer for Controlling Neuro-inflammation in Newly Diagnosed Amyotrophic Lateral Sclerosis (ALS) Patients: A Randomized, Double-blind, Placebo- Controlled, Phase-II Proof of Concept/ Proof of Mechanism Clinical Trial</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>MIROCALS</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4892,36 +5362,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT03636789</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Evaluation of the Prevalence of Oculomotor Disorders in Patients With Radiologically Isolated Syndrome</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>OCRIS</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4940,32 +5415,37 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT05019482</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4984,36 +5464,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT04473508</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Erectus Nerve Block for Lumbar Spine Surgery : a Prospective Randomized Study</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>EFABE</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5032,36 +5517,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT03946488</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Évaluation Des modalités Optimales de Pilotage et de l'Impact Sur Les capacités de préhension d'Une Stimulation électrique Fonctionnelle Des Muscles Extenseurs Des Doigts Chez le Patient hémiplégique en Phase Chronique</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>PREHENSTROKE</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5080,36 +5570,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT04943133</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>SFATI GROPE</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5128,36 +5623,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT03646786</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Prospective Pilot Study of Multi-actor Tolerance Evaluation Using the VIRARE Device (VIrtual Reality Assisted Rehabilitation) in Visually Impaired Patients</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>VIRARE</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5176,36 +5676,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT04178148</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Personalized Dose Optimization of Amikacin Guided by Pharmacokinetic Modeling Software in Patients With Septic Shock</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>AMINO BESTDOSE</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5224,28 +5729,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT04742374</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Comparison of the Effects of 2 Therapeutic Plasmapheresis Techniques: Single Plasma Exchange and Double Filtration Plasmapheresis (DFPP) on Peripheral Lymphocyte Phenotypes in Patients With Chronic Inflammatory Demyelinating Polyradiculoneuropathy (CIDP). A Monocentric Prospective Study With a Single-Case Experimental Design</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>LYMPHOARESIS</t>
         </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -5253,7 +5760,10 @@
       <c r="K102" t="b">
         <v>1</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5272,36 +5782,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT04366453</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Evaluation of the Ejection Fraction of the Left Ventricle in the Emergency Room by a New Automatic Evaluation Tool in a Pocket Ultrasound Scanner: A Reproducibility Study</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>ReproAuto_FEVG</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5320,36 +5835,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT04174092</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Catastrophism in Chronic Inflammatory Rheumatism</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>CRIC</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5368,36 +5888,41 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT04957186</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>BEAUTIFY-2</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5416,36 +5941,41 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>NCT03280797</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>IL-MAI</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5464,36 +5994,41 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT03867305</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Evaluation of the Action of MOBIDERM® on Periarticular Edema After Total Knee Prosthesis - Randomized Controlled Pilot Study</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>MOBŒDEM</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5512,36 +6047,41 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT02742025</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Evaluation of the Effect of an Educational and Explanatory Program for a Surgical Act Provided to the Patient Prior to Said Act on Preoperative Anxiety - a Pilot Study at the Nîmes University Hospital on Elective Coronary Angiography</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>HEART-LINK</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5560,36 +6100,41 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>NCT05415605</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>LUNGSTRAIN</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5608,36 +6153,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT03464760</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Evaluation of the Effect of Spirulina-Silicon Supplementation on the Morphological, Biomechanical and Functional Characteristics of the Arterial Wall in the Elderly</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>ANGIO SPIRUL</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -5656,36 +6206,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT04274595</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>PSORTI-BIO</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5704,36 +6259,41 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>NCT04641169</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>CONCORDANCEVEF</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5752,36 +6312,41 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>NCT03428165</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Transfer of Frozen Embryos in NATural Cycle: Evaluation of Impact of Spontaneous Versus HCG-triggered Ovulation on Pregnancy Rate - Bicentric Prospective Open Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>TECNAT</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5800,36 +6365,41 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>NCT03704545</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Clinical Impact of Pharmaceutical Consultations in Patients Treated for Chronic Obstructive Pulmonary Disease at Home</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>BPCObs</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5848,36 +6418,41 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>NCT04802226</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Optimization of the Self-exclusion Procedure</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>OSE</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5896,36 +6471,41 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>NCT04703348</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Pilot Study on the Assessment of Motor Imaging Skills in Patients With Complex Regional Pain Syndrome (CRPS)</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>ImagNimes</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -5944,36 +6524,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>NCT03194126</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Evaluation of Efficacy of Two Therapeutic Strategies for Cervical Maturation Before Medical Termination: Mechanical Plus Medicinal Maturation vs Medicinal Maturation Alone</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>IMEGYN</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5990,38 +6575,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>2021-003511-25</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>PNEUMONIA DOSING IN CRITICALLY ILL PATIENTS A multicentre study to define novel individualised dosing regimens to maximise antibiotic effectiveness for treatment of pneumonia in ICU « French cohort of the PNEUDOS Study »</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>French PNEUDOS Study</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6036,36 +6626,41 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>NCT05343299</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>ROPIWA</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>COMBINATION_PRODUCT</t>
         </is>
@@ -6082,38 +6677,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-001433-74</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Screening Anti-Fungal Exposure in Intensive Care Units – The French Cohort</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>French SAFE ICU Study</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6126,39 +6726,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2019-001837-15</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>AMINO BESTDOSE 
  AMINO BESTDOSE</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6173,36 +6778,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>NCT03634124</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>GT-PT</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -6221,36 +6831,41 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>NCT05329337</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>IRACTIV</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -6269,36 +6884,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>NCT01320215</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Complications Associated With Promontofixation for Pelvic Organ Prolapse: a Randomized Trial Comparing Robot Assisted Laparoscopic and Non-robot Assisted Laparoscopic Surgical Procedures</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>RoboLaps</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
       <c r="J124" t="b">
         <v>0</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -6317,36 +6937,41 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>NCT04309942</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>An Evaluation Study on the Performance of a Guided Clinical Pharmacy Consultation for Patients With Multiple Myeloma Following Their First Oral Anticancer Treatment</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>CPS MYELOME</t>
         </is>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
       <c r="J125" t="b">
         <v>0</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6365,36 +6990,41 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>NCT04002843</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>JITTOX</t>
         </is>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
       <c r="J126" t="b">
         <v>0</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6413,36 +7043,41 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>NCT01817166</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>D-Lay-MS</t>
         </is>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
       <c r="J127" t="b">
         <v>0</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -6459,40 +7094,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>2019-001678-26</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Erectus nerve block for lumbar spine surgery : a prospective randomized study 
  Efficacité analgésique du bloc des érecteurs du rachis pour arthrodèse rachidienne lombaire : étude comparative contre placébo</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>EFABE Study 
  EFABE</t>
         </is>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
       </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6507,36 +7147,41 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>NCT05654818</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Peripheral Immunological Effects of High-dose Vitamin D Treatment in Healthy Subjects: Randomized, Single-center, Double-blind Trial</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>VDSS</t>
         </is>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
       <c r="J129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6555,36 +7200,41 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>NCT05565131</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Performance Measurement and Safety Evaluation of the PYTHEAS® ODYSSEE Angular Assistance System for Intra-pedicular Screw Placement in Adult Spine Surgery. First-in-human Study</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>ODYSSEE</t>
         </is>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6603,36 +7253,41 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>NCT04947904</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>OPTIFLUID</t>
         </is>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6651,36 +7306,41 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>NCT04301401</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>VAGIBIOTE</t>
         </is>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6699,36 +7359,41 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>NCT02735902</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Anticoagulation Alone Versus Anticoagulation and Aspirin Following Transcatheter Aortic Valve Interventions - an Open, Multicenter Randomized Controlled Trial With Two Parallel Arms (1:1)</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>AVATAR</t>
         </is>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
       <c r="J133" t="b">
         <v>0</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6747,36 +7412,41 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>NCT05060146</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Prevention of Pneumococcal Infections: Impact Collaborative Medico-pharmaceutical Care Structured to Improve Vaccination Coverage of Patients At Risk.</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>OPTIVACC</t>
         </is>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
       <c r="J134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6793,40 +7463,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>2013-000910-40</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI) 
  Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI)</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>D-Lay MS 
  D-Lay MS</t>
         </is>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
       <c r="J135" t="b">
         <v>0</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
       </c>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6841,36 +7516,41 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>NCT03964571</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>CHEK BAC</t>
         </is>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
       <c r="J136" t="b">
         <v>0</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -6887,40 +7567,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>2022-002157-25</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle  
  Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>VDSS 
  VDSS</t>
         </is>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
       <c r="J137" t="b">
         <v>0</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
       </c>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6935,36 +7620,41 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>NCT05058313</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Evaluation of the Safety and Performance of the MILTA GYNECO Vaginal Probe in Postmenopausal Women With Vaginal Atrophy Resistant to All Non-invasive Therapies for More Than 3 Months - Pilot Study of First Use in Females</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>SIVAM</t>
         </is>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
       <c r="J138" t="b">
         <v>0</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6983,36 +7673,41 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>NCT03929952</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Descriptive Pilot Study of the Effects of a Standardized Neuromodulation Program on Cortical Brain Function in Chronic Low Back Pain Patients</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>NEMOLOC</t>
         </is>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
       <c r="J139" t="b">
         <v>0</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -7031,36 +7726,41 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>NCT05449340</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>BEAUTIFY-3</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
       <c r="J140" t="b">
         <v>0</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -7079,36 +7779,41 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>NCT05655351</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>VACTICOV2</t>
         </is>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
       <c r="J141" t="b">
         <v>0</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -7125,35 +7830,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
         <is>
           <t>2021-006493-23</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
         <is>
           <t>Evaluation of the patient postoperative experience of two modes of WALANT-type anesthesia (lidocaine alone or combined with ropivacaine) used in ambulatory upper-extremity surgery 
  Evaluation de l’effet sur le vécu post opératoire de deux modes d’anesthésie de type WALANT (lidocaïne seule ou associée à la ropivacaïne) utilisés en chirurgie ambulatoire du membre supérieur</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>ROPIWA</t>
         </is>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
       <c r="J142" t="b">
         <v>0</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
       </c>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7166,30 +7876,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
         <is>
           <t>2008-007163-16</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
         <is>
           <t>La TEP-TDM au 18F-FDG : permet-elle d’optimiser les résultats de la scintigraphie à la I123-MIBG dans la recherche d’éléments discriminants pour l’implantation d’un défibrillateur implantable, en prévention primaire, chez les patients porteurs d’une insuffisance cardiaque d’origine ischémique ?</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="b">
         <v>0</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
       </c>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7202,30 +7917,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
         <is>
           <t>2008-007161-23</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Etude comparative de l’efficacité articulaire et fonctionnelle du Mélange Equimoléculaire Oxygène-Protoxyde d’Azote (MEOPA) dans la rééducation des capsulites rétractiles d'épaule.</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="b">
         <v>0</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
       </c>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00153231</t>

--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -70,15 +70,27 @@
     <t>NCT00153231</t>
   </si>
   <si>
+    <t>NCT01189188</t>
+  </si>
+  <si>
     <t>NCT00370877</t>
   </si>
   <si>
-    <t>NCT01189188</t>
-  </si>
-  <si>
     <t>NCT00264589</t>
   </si>
   <si>
+    <t>NCT01647802</t>
+  </si>
+  <si>
+    <t>NCT03867071</t>
+  </si>
+  <si>
+    <t>NCT03614598</t>
+  </si>
+  <si>
+    <t>NCT01647815</t>
+  </si>
+  <si>
     <t>NCT01644760</t>
   </si>
   <si>
@@ -88,381 +100,369 @@
     <t>NCT01402765</t>
   </si>
   <si>
-    <t>NCT03867071</t>
-  </si>
-  <si>
-    <t>NCT03614598</t>
-  </si>
-  <si>
-    <t>NCT01647802</t>
-  </si>
-  <si>
-    <t>NCT01647815</t>
+    <t>NCT01087229</t>
+  </si>
+  <si>
+    <t>NCT01795443</t>
+  </si>
+  <si>
+    <t>NCT00153257</t>
+  </si>
+  <si>
+    <t>NCT01390454</t>
+  </si>
+  <si>
+    <t>NCT01543360</t>
+  </si>
+  <si>
+    <t>NCT01545089</t>
   </si>
   <si>
     <t>NCT01134588</t>
   </si>
   <si>
-    <t>NCT01087229</t>
-  </si>
-  <si>
-    <t>NCT01543360</t>
-  </si>
-  <si>
-    <t>NCT01795443</t>
-  </si>
-  <si>
-    <t>NCT01390454</t>
-  </si>
-  <si>
-    <t>NCT00153257</t>
-  </si>
-  <si>
-    <t>NCT01545089</t>
+    <t>NCT01746433</t>
+  </si>
+  <si>
+    <t>NCT01114347</t>
+  </si>
+  <si>
+    <t>NCT01750944</t>
+  </si>
+  <si>
+    <t>NCT01785368</t>
+  </si>
+  <si>
+    <t>NCT01323049</t>
+  </si>
+  <si>
+    <t>NCT01259648</t>
+  </si>
+  <si>
+    <t>NCT01743105</t>
+  </si>
+  <si>
+    <t>NCT01685645</t>
   </si>
   <si>
     <t>NCT01800084</t>
   </si>
   <si>
-    <t>NCT01323049</t>
+    <t>NCT02888158</t>
   </si>
   <si>
     <t>NCT01292044</t>
   </si>
   <si>
-    <t>NCT01259648</t>
-  </si>
-  <si>
-    <t>NCT02888158</t>
-  </si>
-  <si>
-    <t>NCT01746433</t>
-  </si>
-  <si>
-    <t>NCT01743105</t>
-  </si>
-  <si>
-    <t>NCT01785368</t>
-  </si>
-  <si>
-    <t>NCT01114347</t>
-  </si>
-  <si>
-    <t>NCT01750944</t>
-  </si>
-  <si>
-    <t>NCT01685645</t>
+    <t>NCT02329613</t>
+  </si>
+  <si>
+    <t>NCT02118259</t>
+  </si>
+  <si>
+    <t>NCT01819714</t>
   </si>
   <si>
     <t>NCT01404819</t>
   </si>
   <si>
+    <t>NCT02255994</t>
+  </si>
+  <si>
+    <t>NCT01566058</t>
+  </si>
+  <si>
+    <t>NCT01739426</t>
+  </si>
+  <si>
+    <t>NCT01403220</t>
+  </si>
+  <si>
+    <t>NCT01541059</t>
+  </si>
+  <si>
     <t>NCT01101087</t>
   </si>
   <si>
-    <t>NCT02255994</t>
-  </si>
-  <si>
-    <t>NCT01739426</t>
-  </si>
-  <si>
-    <t>NCT01403220</t>
-  </si>
-  <si>
-    <t>NCT01541059</t>
-  </si>
-  <si>
-    <t>NCT02329613</t>
-  </si>
-  <si>
-    <t>NCT01819714</t>
-  </si>
-  <si>
     <t>NCT02519764</t>
   </si>
   <si>
-    <t>NCT02118259</t>
-  </si>
-  <si>
-    <t>NCT01566058</t>
+    <t>NCT02059759</t>
+  </si>
+  <si>
+    <t>NCT02614573</t>
+  </si>
+  <si>
+    <t>NCT02636829</t>
+  </si>
+  <si>
+    <t>NCT01649401</t>
+  </si>
+  <si>
+    <t>NCT01789801</t>
+  </si>
+  <si>
+    <t>NCT02400151</t>
+  </si>
+  <si>
+    <t>NCT02380820</t>
+  </si>
+  <si>
+    <t>NCT02392390</t>
+  </si>
+  <si>
+    <t>NCT02598115</t>
   </si>
   <si>
     <t>NCT02614638</t>
   </si>
   <si>
-    <t>NCT02059759</t>
+    <t>NCT02664636</t>
+  </si>
+  <si>
+    <t>NCT02126930</t>
+  </si>
+  <si>
+    <t>NCT01559168</t>
   </si>
   <si>
     <t>NCT02610452</t>
   </si>
   <si>
-    <t>NCT02598115</t>
-  </si>
-  <si>
-    <t>NCT01649401</t>
-  </si>
-  <si>
-    <t>NCT01559168</t>
-  </si>
-  <si>
-    <t>NCT01789801</t>
-  </si>
-  <si>
-    <t>NCT02380820</t>
-  </si>
-  <si>
-    <t>NCT02664636</t>
-  </si>
-  <si>
-    <t>NCT02392390</t>
-  </si>
-  <si>
-    <t>NCT02636829</t>
-  </si>
-  <si>
-    <t>NCT02400151</t>
-  </si>
-  <si>
-    <t>NCT02614573</t>
-  </si>
-  <si>
-    <t>NCT02126930</t>
-  </si>
-  <si>
     <t>NCT02325063</t>
   </si>
   <si>
+    <t>NCT02273687</t>
+  </si>
+  <si>
+    <t>NCT02614651</t>
+  </si>
+  <si>
+    <t>NCT01905644</t>
+  </si>
+  <si>
+    <t>NCT02269020</t>
+  </si>
+  <si>
+    <t>NCT02609191</t>
+  </si>
+  <si>
     <t>NCT01536301</t>
   </si>
   <si>
-    <t>NCT02609191</t>
-  </si>
-  <si>
-    <t>NCT02614651</t>
-  </si>
-  <si>
-    <t>NCT02269020</t>
-  </si>
-  <si>
     <t>NCT02610647</t>
   </si>
   <si>
-    <t>NCT01905644</t>
-  </si>
-  <si>
-    <t>NCT02273687</t>
-  </si>
-  <si>
     <t>NCT04007302</t>
   </si>
   <si>
+    <t>NCT02805049</t>
+  </si>
+  <si>
     <t>NCT01380860</t>
   </si>
   <si>
+    <t>NCT03162757</t>
+  </si>
+  <si>
+    <t>NCT03998930</t>
+  </si>
+  <si>
+    <t>NCT02598141</t>
+  </si>
+  <si>
+    <t>NCT02583997</t>
+  </si>
+  <si>
     <t>NCT03356847</t>
   </si>
   <si>
-    <t>NCT03162757</t>
-  </si>
-  <si>
-    <t>NCT03998930</t>
+    <t>NCT02116387</t>
   </si>
   <si>
     <t>NCT03633578</t>
   </si>
   <si>
-    <t>NCT02598141</t>
-  </si>
-  <si>
     <t>NCT01558856</t>
   </si>
   <si>
-    <t>NCT02583997</t>
-  </si>
-  <si>
-    <t>NCT02805049</t>
-  </si>
-  <si>
-    <t>NCT02116387</t>
+    <t>NCT02299440</t>
+  </si>
+  <si>
+    <t>NCT03603470</t>
+  </si>
+  <si>
+    <t>NCT02932696</t>
   </si>
   <si>
     <t>NCT02739880</t>
   </si>
   <si>
+    <t>NCT03407963</t>
+  </si>
+  <si>
     <t>NCT02892227</t>
   </si>
   <si>
+    <t>NCT04463147</t>
+  </si>
+  <si>
     <t>NCT03244813</t>
   </si>
   <si>
-    <t>NCT02299440</t>
-  </si>
-  <si>
-    <t>NCT03603470</t>
-  </si>
-  <si>
-    <t>NCT02932696</t>
-  </si>
-  <si>
-    <t>NCT03407963</t>
-  </si>
-  <si>
-    <t>NCT04463147</t>
+    <t>NCT03562754</t>
+  </si>
+  <si>
+    <t>NCT03564951</t>
+  </si>
+  <si>
+    <t>NCT03868189</t>
+  </si>
+  <si>
+    <t>NCT02683304</t>
   </si>
   <si>
     <t>NCT02664623</t>
   </si>
   <si>
-    <t>NCT03868189</t>
-  </si>
-  <si>
-    <t>NCT03564951</t>
+    <t>NCT04360304</t>
   </si>
   <si>
     <t>NCT02304679</t>
   </si>
   <si>
-    <t>NCT03562754</t>
-  </si>
-  <si>
-    <t>NCT04360304</t>
-  </si>
-  <si>
-    <t>NCT02683304</t>
-  </si>
-  <si>
     <t>NCT03600636</t>
   </si>
   <si>
+    <t>NCT03946488</t>
+  </si>
+  <si>
+    <t>NCT04473508</t>
+  </si>
+  <si>
+    <t>NCT04943133</t>
+  </si>
+  <si>
+    <t>NCT05019482</t>
+  </si>
+  <si>
+    <t>NCT03636789</t>
+  </si>
+  <si>
     <t>NCT03628248</t>
   </si>
   <si>
     <t>NCT03039673</t>
   </si>
   <si>
-    <t>NCT03636789</t>
-  </si>
-  <si>
-    <t>NCT05019482</t>
-  </si>
-  <si>
-    <t>NCT04473508</t>
-  </si>
-  <si>
-    <t>NCT03946488</t>
-  </si>
-  <si>
-    <t>NCT04943133</t>
+    <t>NCT04178148</t>
+  </si>
+  <si>
+    <t>NCT04174092</t>
+  </si>
+  <si>
+    <t>NCT04641169</t>
+  </si>
+  <si>
+    <t>NCT04274595</t>
+  </si>
+  <si>
+    <t>NCT04742374</t>
   </si>
   <si>
     <t>NCT03646786</t>
   </si>
   <si>
-    <t>NCT04178148</t>
-  </si>
-  <si>
-    <t>NCT04742374</t>
+    <t>NCT03464760</t>
+  </si>
+  <si>
+    <t>NCT04957186</t>
+  </si>
+  <si>
+    <t>NCT04802226</t>
+  </si>
+  <si>
+    <t>NCT03704545</t>
+  </si>
+  <si>
+    <t>NCT03280797</t>
+  </si>
+  <si>
+    <t>NCT03867305</t>
+  </si>
+  <si>
+    <t>NCT05415605</t>
   </si>
   <si>
     <t>NCT04366453</t>
   </si>
   <si>
-    <t>NCT04174092</t>
-  </si>
-  <si>
-    <t>NCT04957186</t>
-  </si>
-  <si>
-    <t>NCT03280797</t>
-  </si>
-  <si>
-    <t>NCT03867305</t>
-  </si>
-  <si>
     <t>NCT02742025</t>
   </si>
   <si>
-    <t>NCT05415605</t>
-  </si>
-  <si>
-    <t>NCT03464760</t>
-  </si>
-  <si>
-    <t>NCT04274595</t>
-  </si>
-  <si>
-    <t>NCT04641169</t>
-  </si>
-  <si>
     <t>NCT03428165</t>
   </si>
   <si>
-    <t>NCT03704545</t>
-  </si>
-  <si>
-    <t>NCT04802226</t>
-  </si>
-  <si>
     <t>NCT04703348</t>
   </si>
   <si>
+    <t>NCT03634124</t>
+  </si>
+  <si>
+    <t>NCT01817166</t>
+  </si>
+  <si>
+    <t>NCT04301401</t>
+  </si>
+  <si>
+    <t>NCT04947904</t>
+  </si>
+  <si>
+    <t>NCT05329337</t>
+  </si>
+  <si>
+    <t>NCT04309942</t>
+  </si>
+  <si>
+    <t>NCT01320215</t>
+  </si>
+  <si>
+    <t>NCT05343299</t>
+  </si>
+  <si>
+    <t>NCT05654818</t>
+  </si>
+  <si>
     <t>NCT03194126</t>
   </si>
   <si>
-    <t>NCT05343299</t>
-  </si>
-  <si>
-    <t>NCT03634124</t>
-  </si>
-  <si>
-    <t>NCT05329337</t>
-  </si>
-  <si>
-    <t>NCT01320215</t>
-  </si>
-  <si>
-    <t>NCT04309942</t>
-  </si>
-  <si>
     <t>NCT04002843</t>
   </si>
   <si>
-    <t>NCT01817166</t>
-  </si>
-  <si>
-    <t>NCT05654818</t>
-  </si>
-  <si>
     <t>NCT05565131</t>
   </si>
   <si>
-    <t>NCT04947904</t>
-  </si>
-  <si>
-    <t>NCT04301401</t>
+    <t>NCT05449340</t>
+  </si>
+  <si>
+    <t>NCT03964571</t>
+  </si>
+  <si>
+    <t>NCT03929952</t>
   </si>
   <si>
     <t>NCT02735902</t>
   </si>
   <si>
+    <t>NCT05058313</t>
+  </si>
+  <si>
+    <t>NCT05655351</t>
+  </si>
+  <si>
     <t>NCT05060146</t>
   </si>
   <si>
-    <t>NCT03964571</t>
-  </si>
-  <si>
-    <t>NCT05058313</t>
-  </si>
-  <si>
-    <t>NCT03929952</t>
-  </si>
-  <si>
-    <t>NCT05449340</t>
-  </si>
-  <si>
-    <t>NCT05655351</t>
-  </si>
-  <si>
     <t>2015-000060-34</t>
   </si>
   <si>
@@ -475,18 +475,18 @@
     <t>2017-001433-74</t>
   </si>
   <si>
+    <t>2019-001678-26</t>
+  </si>
+  <si>
     <t>2019-001837-15</t>
   </si>
   <si>
-    <t>2019-001678-26</t>
+    <t>2022-002157-25</t>
   </si>
   <si>
     <t>2013-000910-40</t>
   </si>
   <si>
-    <t>2022-002157-25</t>
-  </si>
-  <si>
     <t>2021-006493-23</t>
   </si>
   <si>
@@ -547,15 +547,27 @@
     <t>Clinical Evaluation of Morbidity and Efficacy of Posterior IVS (Infracoccygeal Sacropexy), in Comparison to the Standard Sacrospinous Suspension in the Surgical Treatment of Vaginal Vault Prolapse by the Vaginal Route.</t>
   </si>
   <si>
+    <t>Ultrasound Guidance for Radial Arterial Blood Sampling</t>
+  </si>
+  <si>
     <t>Recombinant Human Activated Factor VII as Salvage Therapy in Women With Severe Postpartum Hemorrhage</t>
   </si>
   <si>
-    <t>Ultrasound Guidance for Radial Arterial Blood Sampling</t>
-  </si>
-  <si>
     <t>Effects of an Individualized Training Program on Cardiovascular Function at Rest and During Exercise in Obese and in Type 2 Diabetic Subjects</t>
   </si>
   <si>
+    <t>Cross-over Study of Three Modular Devices for Aid in Patient Standing and Transfer</t>
+  </si>
+  <si>
+    <t>Early Administration of Recombinant Erythropoietin (RHEPO) in Transfusion Savings in Trauma Patients</t>
+  </si>
+  <si>
+    <t>Impact on Postoperative Pain of Three Single-use Adult Supraglottic Airway Devices in Short General Anesthetic Under Controlled Ventilation</t>
+  </si>
+  <si>
+    <t>Ultrasound Comparison of the Surface of the Subclavian Vein (Arm in Abduction (90°) and External Rotation (90 °)) and the Surface of the Axillary Vein (Arms Along the Body) Versus the Surface of the Subclavian Vein (Arm Along the Body)</t>
+  </si>
+  <si>
     <t>Respiratory Variations in the Diameter of the Inferior Vena Cava With Spontaneous Ventilation: A Physiological Study on Healthy Volunteers</t>
   </si>
   <si>
@@ -565,255 +577,258 @@
     <t>Interface Pressure Measures for Matresses: a Randomized, Cross-over, Non-inferiority Study Comparing the Nimbus 3 Versus Summit Matresses</t>
   </si>
   <si>
-    <t>Early Administration of Recombinant Erythropoietin (RHEPO) in Transfusion Savings in Trauma Patients</t>
-  </si>
-  <si>
-    <t>Impact on Postoperative Pain of Three Single-use Adult Supraglottic Airway Devices in Short General Anesthetic Under Controlled Ventilation</t>
-  </si>
-  <si>
-    <t>Cross-over Study of Three Modular Devices for Aid in Patient Standing and Transfer</t>
-  </si>
-  <si>
-    <t>Ultrasound Comparison of the Surface of the Subclavian Vein (Arm in Abduction (90°) and External Rotation (90 °)) and the Surface of the Axillary Vein (Arms Along the Body) Versus the Surface of the Subclavian Vein (Arm Along the Body)</t>
+    <t>Comparative Study of the Effectiveness of an Equimolar Oxygen-nitrous Oxide Mixture During Physical Therapy for Adhesive Shoulder Capsulitis</t>
+  </si>
+  <si>
+    <t>Lumbar Proprioception in Lower Back Pain Patients Versus Healthy Subjects : a Comparative Study on the Effects of Low- and High-frequency Muscle Vibrations</t>
+  </si>
+  <si>
+    <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
+  </si>
+  <si>
+    <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
+  </si>
+  <si>
+    <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
+  </si>
+  <si>
+    <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
   </si>
   <si>
     <t>Assessment of Quality of Life in Disorders of the Pelvic Floor</t>
   </si>
   <si>
-    <t>Comparative Study of the Effectiveness of an Equimolar Oxygen-nitrous Oxide Mixture During Physical Therapy for Adhesive Shoulder Capsulitis</t>
-  </si>
-  <si>
-    <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
-  </si>
-  <si>
-    <t>Lumbar Proprioception in Lower Back Pain Patients Versus Healthy Subjects : a Comparative Study on the Effects of Low- and High-frequency Muscle Vibrations</t>
-  </si>
-  <si>
-    <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
-  </si>
-  <si>
-    <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
-  </si>
-  <si>
-    <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
+    <t>Evaluation of the Mobility of Elderly Patients (&gt; 65 Years) When Using the "l'Ergonome" Mobility Device: a Randomized, Monocentric Study</t>
+  </si>
+  <si>
+    <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
+  </si>
+  <si>
+    <t>Validation of the Measurement of a Systolic Pressure Index at the Toe (IPSO) After a Walking Test</t>
+  </si>
+  <si>
+    <t>Implementing Referral Guidelines for Imaging Exams Requested Via the Emergency Department: Impact on Exam Relevance and Associated Delays</t>
+  </si>
+  <si>
+    <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
+  </si>
+  <si>
+    <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
+  </si>
+  <si>
+    <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
+  </si>
+  <si>
+    <t>Does the Measurement of Pupillary Reactivity to Painful Stimulation by an Automated Pupillometer Determine the Effectiveness of Local Anesthesia When Undergoing General Anesthesia?</t>
   </si>
   <si>
     <t>Impact of Reconstruction Method (Adaptive Statistical Iterative Reconstruction, Filtered Back Projection) Used in Computed Tomography on Bone Single-Photon- Emission-Computed-Tomography/Computed-Tomography Image Quality</t>
   </si>
   <si>
-    <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
+    <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
   </si>
   <si>
     <t>The Role of Elastography in the Diagnosis of Thyroid Nodules</t>
   </si>
   <si>
-    <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
-  </si>
-  <si>
-    <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Mobility of Elderly Patients (&gt; 65 Years) When Using the "l'Ergonome" Mobility Device: a Randomized, Monocentric Study</t>
-  </si>
-  <si>
-    <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
-  </si>
-  <si>
-    <t>Implementing Referral Guidelines for Imaging Exams Requested Via the Emergency Department: Impact on Exam Relevance and Associated Delays</t>
-  </si>
-  <si>
-    <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
-  </si>
-  <si>
-    <t>Validation of the Measurement of a Systolic Pressure Index at the Toe (IPSO) After a Walking Test</t>
-  </si>
-  <si>
-    <t>Does the Measurement of Pupillary Reactivity to Painful Stimulation by an Automated Pupillometer Determine the Effectiveness of Local Anesthesia When Undergoing General Anesthesia?</t>
+    <t>Impact of the Introduction of a New Qualitative Composition of the Evening Meal on the Feeding Behavior of Institutionalized Residents of a Long-term Care Unit: a Randomized, Single Center Study</t>
+  </si>
+  <si>
+    <t>Impact of Multidisciplinary Review of Drug Prescriptions on Patient Safety in a Residence for Dependent Elderly</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
   </si>
   <si>
     <t>Evaluation of Brain Damage Resulting From Carotid Endarterectomy With Xenon Anesthesia</t>
   </si>
   <si>
+    <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
+  </si>
+  <si>
+    <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
+  </si>
+  <si>
+    <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
+  </si>
+  <si>
+    <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
+  </si>
+  <si>
+    <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
+  </si>
+  <si>
     <t>Efficacity of Taurolock in Preventing Primary Bacterial Peritonitis in Patients Undergoing Peritoneal Dialysis for Renal Insufficiency: a Randomized, Multicenter, Double Blind Study With Placebo</t>
   </si>
   <si>
-    <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
-  </si>
-  <si>
-    <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
-  </si>
-  <si>
-    <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
-  </si>
-  <si>
-    <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
-  </si>
-  <si>
-    <t>Impact of the Introduction of a New Qualitative Composition of the Evening Meal on the Feeding Behavior of Institutionalized Residents of a Long-term Care Unit: a Randomized, Single Center Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
-  </si>
-  <si>
     <t>Evaluation of the Impact of a Hydration Protocol "at Thirst" on Natremia of the Ultra Trail du Mont-Blanc, 2015 Runners</t>
   </si>
   <si>
-    <t>Impact of Multidisciplinary Review of Drug Prescriptions on Patient Safety in a Residence for Dependent Elderly</t>
-  </si>
-  <si>
-    <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
-  </si>
-  <si>
     <t>Immuno-modulation in Amyotrophic Lateral Sclerosis- a Phase II Study of Safety and Activity of Low Dose Interleukin-2</t>
   </si>
   <si>
-    <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
-  </si>
-  <si>
-    <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
+    <t>International Normalised Ratio Evaluation by Generalist Practitioners in Full-time Care Establishments for the Elderly: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
   </si>
   <si>
     <t>Efficacy of the PARI LC Sprint Sp Nebulizer for Acute Asthma Attack in Hospitalized Children Less Than 36 Months of Age</t>
   </si>
   <si>
-    <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
-  </si>
-  <si>
     <t>A Randomized Study Evaluating the Role of Ultra-sound Guidance When Drawing Radial Arterial Blood Samples</t>
   </si>
   <si>
+    <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
+  </si>
+  <si>
     <t>Comparative Measurements of Interface Pressures Between Two Pressure-ulcer Prevention Mattresses: Softform Premier and Airsoft Duo</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
-  </si>
-  <si>
-    <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
   </si>
   <si>
     <t>Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée 
  Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée</t>
   </si>
   <si>
-    <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
-  </si>
-  <si>
-    <t>International Normalised Ratio Evaluation by Generalist Practitioners in Full-time Care Establishments for the Elderly: a Pilot Study</t>
+    <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
   </si>
   <si>
     <t>Impact of a Pharmaceutical Consultation at Hospital Discharge on Adherence to Anti-infective Treatment After Returning Home</t>
   </si>
   <si>
+    <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
+  </si>
+  <si>
     <t>Leukocyte and Platelet Rich Plasma Versus Type a Botulinum Toxin Versus Glucocorticoids for the Treatment of Lateral Epicondylalgia: a Randomized, Multicenter, Double-blind, Therapeutic Trial with Three Parallel Arms</t>
   </si>
   <si>
+    <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
+  </si>
+  <si>
+    <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
+  </si>
+  <si>
+    <t>Verifying Anal Sphincter Integrity in the Delivery Room Using a Specific Perineal Ultrasound: Impact on Immediate Care and Postpartum Anal Incontinence Rates in Mothers Undergoing Vaginal Birth</t>
+  </si>
+  <si>
+    <t>Unilateral Selective Neck Dissection at Lymph Node Levels IIa, III and IV Using a Robot-assisted Transaxillary Approach in Patients With Squamous Cell Carcinoma of the Epi-larynx: the First Three Patients</t>
+  </si>
+  <si>
+    <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
+  </si>
+  <si>
     <t>Evaluation of Oxycodone Hydrochloride Versus Intravenous Morphine Hydrochloride for Postoperative Analgesia After Hip Prosthetic Surgery</t>
   </si>
   <si>
-    <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
-  </si>
-  <si>
-    <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
-  </si>
-  <si>
-    <t>Unilateral Selective Neck Dissection at Lymph Node Levels IIa, III and IV Using a Robot-assisted Transaxillary Approach in Patients With Squamous Cell Carcinoma of the Epi-larynx: the First Three Patients</t>
-  </si>
-  <si>
     <t>Functional Significance of Complexity Measures in the Sensory-motor Behavior: Are There Potential Clinical Applications?</t>
   </si>
   <si>
-    <t>Verifying Anal Sphincter Integrity in the Delivery Room Using a Specific Perineal Ultrasound: Impact on Immediate Care and Postpartum Anal Incontinence Rates in Mothers Undergoing Vaginal Birth</t>
-  </si>
-  <si>
-    <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
-  </si>
-  <si>
     <t>Modification de l'activité du Cortex préfrontal Induite Par Distraction en réalité Virtuelle Chez le Sujet Lombalgique Chronique.</t>
   </si>
   <si>
+    <t>Pharmacokinetic Study on Echinocandins for Patients With Septic Shock Following Secondary Peritonitis</t>
+  </si>
+  <si>
     <t>Primary Prevention of Peristomial Hernias Via Parietal Prostheses: a Randomized, Multicentric Study</t>
   </si>
   <si>
+    <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
+  </si>
+  <si>
+    <t>Brain-computer Interface in the Diagnosis of Disorders of Consciousness</t>
+  </si>
+  <si>
+    <t>Comparative Evaluation of Two Techniques for the Treatment of Per-operative Bacteriological Samples Associated With Osteo-articular Sepsis: Grinding (Ultra Turrax) Versus Standard Methods</t>
+  </si>
+  <si>
+    <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
+  </si>
+  <si>
     <t>Evaluation of the Rotational Stability of the Monofocal SISA Implant Following Cataract Surgery</t>
   </si>
   <si>
-    <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
-  </si>
-  <si>
-    <t>Brain-computer Interface in the Diagnosis of Disorders of Consciousness</t>
+    <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
   </si>
   <si>
     <t>Relationship Between Complexity and Pain in a Walking Task With Distraction in the Chronic Low Back Pain Patient by Fractal Analysis: Pilot Study</t>
   </si>
   <si>
-    <t>Comparative Evaluation of Two Techniques for the Treatment of Per-operative Bacteriological Samples Associated With Osteo-articular Sepsis: Grinding (Ultra Turrax) Versus Standard Methods</t>
-  </si>
-  <si>
     <t>Prospective Randomized Trial Comparing Unilateral and Bilateral Neuromodulation Tests in the Treatment of Refractory Idiopathic Overactive Bladder</t>
   </si>
   <si>
-    <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic Study on Echinocandins for Patients With Septic Shock Following Secondary Peritonitis</t>
-  </si>
-  <si>
-    <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
+    <t>Evaluation of the Effects of Ketamine in the Acute Phase of Suicidal Ideation: a Multicenter Randomized Double-blind Trial</t>
+  </si>
+  <si>
+    <t>Total Hip Arthroplasty Instability and Lumbo-pelvic Kinematics: EOS Imaging Assessment of Variation in Spinal and Pelvic Parameters From Standing to Sitting</t>
+  </si>
+  <si>
+    <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
   </si>
   <si>
     <t>Evaluation of the Effect of Multi-point Intra-mucosal Injections of Cross-linked Hyaluronic Acid (DESIRIAL®) in the Vaginal Vestibule: A Prospective, Bicentric, Pilot Study</t>
   </si>
   <si>
+    <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
+  </si>
+  <si>
+    <t>Does the Needle-pilot Device Improve the Success of Vascular Catheterization Compared to the Classical Ultrasound-guided Technique</t>
+  </si>
+  <si>
     <t>Evaluation of the Impact of a Personalized Program of Adapted Physical Activates in Patients With Parkinson Disease</t>
   </si>
   <si>
-    <t>Evaluation of the Effects of Ketamine in the Acute Phase of Suicidal Ideation: a Multicenter Randomized Double-blind Trial</t>
-  </si>
-  <si>
-    <t>Total Hip Arthroplasty Instability and Lumbo-pelvic Kinematics: EOS Imaging Assessment of Variation in Spinal and Pelvic Parameters From Standing to Sitting</t>
-  </si>
-  <si>
-    <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
-  </si>
-  <si>
-    <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
-  </si>
-  <si>
-    <t>Does the Needle-pilot Device Improve the Success of Vascular Catheterization Compared to the Classical Ultrasound-guided Technique</t>
+    <t>Randomized Controlled Trial of Intermittent Hemodialysis With Regional Citrate Anticoagulation Versus Systemic Low Dose Heparin Anticoagulation in Patients at Risk of Bleeding in Nephrology Intensive Care Unit</t>
+  </si>
+  <si>
+    <t>Comparison of Ablation of Anisochronous Zones vs Spatio-temporal Dispersal Zones in Addition to Antral Electrical Isolation During Radiofrequency Treatment of Paroxysmal or Persistent Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
+  </si>
+  <si>
+    <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
+  </si>
+  <si>
+    <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
+  </si>
+  <si>
+    <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
   </si>
   <si>
     <t>Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques 
  Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques</t>
   </si>
   <si>
-    <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
-  </si>
-  <si>
-    <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Comparison of Ablation of Anisochronous Zones vs Spatio-temporal Dispersal Zones in Addition to Antral Electrical Isolation During Radiofrequency Treatment of Paroxysmal or Persistent Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Randomized Controlled Trial of Intermittent Hemodialysis With Regional Citrate Anticoagulation Versus Systemic Low Dose Heparin Anticoagulation in Patients at Risk of Bleeding in Nephrology Intensive Care Unit</t>
-  </si>
-  <si>
-    <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
-  </si>
-  <si>
-    <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
-  </si>
-  <si>
-    <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
+    <t>Évaluation Des modalités Optimales de Pilotage et de l'Impact Sur Les capacités de préhension d'Une Stimulation électrique Fonctionnelle Des Muscles Extenseurs Des Doigts Chez le Patient hémiplégique en Phase Chronique</t>
+  </si>
+  <si>
+    <t>Erectus Nerve Block for Lumbar Spine Surgery : a Prospective Randomized Study</t>
+  </si>
+  <si>
+    <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
+  </si>
+  <si>
+    <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>Evaluation of the Prevalence of Oculomotor Disorders in Patients With Radiologically Isolated Syndrome</t>
   </si>
   <si>
     <t>Effect of Endovascular Inferior Mesenteric Artery Embolization on Colonic Perfusion Prior to Rectal Surgery for Rectal Tumor or Sigmoid Colon Surgery - A Single-center Feasibility Pilot Study.</t>
@@ -822,150 +837,135 @@
     <t>Efficacy and Safety of Low-dose IL-2 (Ld-IL-2) as a Treg Enhancer for Controlling Neuro-inflammation in Newly Diagnosed Amyotrophic Lateral Sclerosis (ALS) Patients: A Randomized, Double-blind, Placebo- Controlled, Phase-II Proof of Concept/ Proof of Mechanism Clinical Trial</t>
   </si>
   <si>
-    <t>Evaluation of the Prevalence of Oculomotor Disorders in Patients With Radiologically Isolated Syndrome</t>
-  </si>
-  <si>
-    <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
-  </si>
-  <si>
-    <t>Erectus Nerve Block for Lumbar Spine Surgery : a Prospective Randomized Study</t>
-  </si>
-  <si>
-    <t>Évaluation Des modalités Optimales de Pilotage et de l'Impact Sur Les capacités de préhension d'Une Stimulation électrique Fonctionnelle Des Muscles Extenseurs Des Doigts Chez le Patient hémiplégique en Phase Chronique</t>
-  </si>
-  <si>
-    <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
+    <t>Personalized Dose Optimization of Amikacin Guided by Pharmacokinetic Modeling Software in Patients With Septic Shock</t>
+  </si>
+  <si>
+    <t>Catastrophism in Chronic Inflammatory Rheumatism</t>
+  </si>
+  <si>
+    <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
+  </si>
+  <si>
+    <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
+  </si>
+  <si>
+    <t>Comparison of the Effects of 2 Therapeutic Plasmapheresis Techniques: Single Plasma Exchange and Double Filtration Plasmapheresis (DFPP) on Peripheral Lymphocyte Phenotypes in Patients With Chronic Inflammatory Demyelinating Polyradiculoneuropathy (CIDP). A Monocentric Prospective Study With a Single-Case Experimental Design</t>
   </si>
   <si>
     <t>Prospective Pilot Study of Multi-actor Tolerance Evaluation Using the VIRARE Device (VIrtual Reality Assisted Rehabilitation) in Visually Impaired Patients</t>
   </si>
   <si>
-    <t>Personalized Dose Optimization of Amikacin Guided by Pharmacokinetic Modeling Software in Patients With Septic Shock</t>
-  </si>
-  <si>
-    <t>Comparison of the Effects of 2 Therapeutic Plasmapheresis Techniques: Single Plasma Exchange and Double Filtration Plasmapheresis (DFPP) on Peripheral Lymphocyte Phenotypes in Patients With Chronic Inflammatory Demyelinating Polyradiculoneuropathy (CIDP). A Monocentric Prospective Study With a Single-Case Experimental Design</t>
+    <t>Evaluation of the Effect of Spirulina-Silicon Supplementation on the Morphological, Biomechanical and Functional Characteristics of the Arterial Wall in the Elderly</t>
+  </si>
+  <si>
+    <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
+  </si>
+  <si>
+    <t>Optimization of the Self-exclusion Procedure</t>
+  </si>
+  <si>
+    <t>Clinical Impact of Pharmaceutical Consultations in Patients Treated for Chronic Obstructive Pulmonary Disease at Home</t>
+  </si>
+  <si>
+    <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
+  </si>
+  <si>
+    <t>Evaluation of the Action of MOBIDERM® on Periarticular Edema After Total Knee Prosthesis - Randomized Controlled Pilot Study</t>
+  </si>
+  <si>
+    <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
   </si>
   <si>
     <t>Evaluation of the Ejection Fraction of the Left Ventricle in the Emergency Room by a New Automatic Evaluation Tool in a Pocket Ultrasound Scanner: A Reproducibility Study</t>
   </si>
   <si>
-    <t>Catastrophism in Chronic Inflammatory Rheumatism</t>
-  </si>
-  <si>
-    <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
-  </si>
-  <si>
-    <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
-  </si>
-  <si>
-    <t>Evaluation of the Action of MOBIDERM® on Periarticular Edema After Total Knee Prosthesis - Randomized Controlled Pilot Study</t>
-  </si>
-  <si>
     <t>Evaluation of the Effect of an Educational and Explanatory Program for a Surgical Act Provided to the Patient Prior to Said Act on Preoperative Anxiety - a Pilot Study at the Nîmes University Hospital on Elective Coronary Angiography</t>
   </si>
   <si>
-    <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of Spirulina-Silicon Supplementation on the Morphological, Biomechanical and Functional Characteristics of the Arterial Wall in the Elderly</t>
-  </si>
-  <si>
-    <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
-  </si>
-  <si>
-    <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
-  </si>
-  <si>
     <t>Transfer of Frozen Embryos in NATural Cycle: Evaluation of Impact of Spontaneous Versus HCG-triggered Ovulation on Pregnancy Rate - Bicentric Prospective Open Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Clinical Impact of Pharmaceutical Consultations in Patients Treated for Chronic Obstructive Pulmonary Disease at Home</t>
-  </si>
-  <si>
-    <t>Optimization of the Self-exclusion Procedure</t>
-  </si>
-  <si>
     <t>Pilot Study on the Assessment of Motor Imaging Skills in Patients With Complex Regional Pain Syndrome (CRPS)</t>
   </si>
   <si>
-    <t>Evaluation of Efficacy of Two Therapeutic Strategies for Cervical Maturation Before Medical Termination: Mechanical Plus Medicinal Maturation vs Medicinal Maturation Alone</t>
-  </si>
-  <si>
     <t>PNEUMONIA DOSING IN CRITICALLY ILL PATIENTS A multicentre study to define novel individualised dosing regimens to maximise antibiotic effectiveness for treatment of pneumonia in ICU « French cohort of the PNEUDOS Study »</t>
   </si>
   <si>
-    <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
+    <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
+  </si>
+  <si>
+    <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
+  </si>
+  <si>
+    <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
+  </si>
+  <si>
+    <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
+  </si>
+  <si>
+    <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
   </si>
   <si>
     <t>Screening Anti-Fungal Exposure in Intensive Care Units – The French Cohort</t>
-  </si>
-  <si>
-    <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
-  </si>
-  <si>
-    <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
-  </si>
-  <si>
-    <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
-  </si>
-  <si>
-    <t>Complications Associated With Promontofixation for Pelvic Organ Prolapse: a Randomized Trial Comparing Robot Assisted Laparoscopic and Non-robot Assisted Laparoscopic Surgical Procedures</t>
-  </si>
-  <si>
-    <t>An Evaluation Study on the Performance of a Guided Clinical Pharmacy Consultation for Patients With Multiple Myeloma Following Their First Oral Anticancer Treatment</t>
-  </si>
-  <si>
-    <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
-  </si>
-  <si>
-    <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
   </si>
   <si>
     <t>Erectus nerve block for lumbar spine surgery : a prospective randomized study 
  Efficacité analgésique du bloc des érecteurs du rachis pour arthrodèse rachidienne lombaire : étude comparative contre placébo</t>
   </si>
   <si>
+    <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
+  </si>
+  <si>
+    <t>An Evaluation Study on the Performance of a Guided Clinical Pharmacy Consultation for Patients With Multiple Myeloma Following Their First Oral Anticancer Treatment</t>
+  </si>
+  <si>
+    <t>Complications Associated With Promontofixation for Pelvic Organ Prolapse: a Randomized Trial Comparing Robot Assisted Laparoscopic and Non-robot Assisted Laparoscopic Surgical Procedures</t>
+  </si>
+  <si>
+    <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
+  </si>
+  <si>
     <t>Peripheral Immunological Effects of High-dose Vitamin D Treatment in Healthy Subjects: Randomized, Single-center, Double-blind Trial</t>
   </si>
   <si>
+    <t>Evaluation of Efficacy of Two Therapeutic Strategies for Cervical Maturation Before Medical Termination: Mechanical Plus Medicinal Maturation vs Medicinal Maturation Alone</t>
+  </si>
+  <si>
+    <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
+  </si>
+  <si>
     <t>Performance Measurement and Safety Evaluation of the PYTHEAS® ODYSSEE Angular Assistance System for Intra-pedicular Screw Placement in Adult Spine Surgery. First-in-human Study</t>
   </si>
   <si>
-    <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
-  </si>
-  <si>
-    <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
+    <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
+  </si>
+  <si>
+    <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
+  </si>
+  <si>
+    <t>Descriptive Pilot Study of the Effects of a Standardized Neuromodulation Program on Cortical Brain Function in Chronic Low Back Pain Patients</t>
   </si>
   <si>
     <t>Anticoagulation Alone Versus Anticoagulation and Aspirin Following Transcatheter Aortic Valve Interventions - an Open, Multicenter Randomized Controlled Trial With Two Parallel Arms (1:1)</t>
   </si>
   <si>
+    <t>Evaluation of the Safety and Performance of the MILTA GYNECO Vaginal Probe in Postmenopausal Women With Vaginal Atrophy Resistant to All Non-invasive Therapies for More Than 3 Months - Pilot Study of First Use in Females</t>
+  </si>
+  <si>
+    <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
+  </si>
+  <si>
     <t>Prevention of Pneumococcal Infections: Impact Collaborative Medico-pharmaceutical Care Structured to Improve Vaccination Coverage of Patients At Risk.</t>
+  </si>
+  <si>
+    <t>Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle  
+ Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle</t>
   </si>
   <si>
     <t>Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI) 
  Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI)</t>
   </si>
   <si>
-    <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
-  </si>
-  <si>
-    <t>Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle  
- Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle</t>
-  </si>
-  <si>
-    <t>Evaluation of the Safety and Performance of the MILTA GYNECO Vaginal Probe in Postmenopausal Women With Vaginal Atrophy Resistant to All Non-invasive Therapies for More Than 3 Months - Pilot Study of First Use in Females</t>
-  </si>
-  <si>
-    <t>Descriptive Pilot Study of the Effects of a Standardized Neuromodulation Program on Cortical Brain Function in Chronic Low Back Pain Patients</t>
-  </si>
-  <si>
-    <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
-  </si>
-  <si>
-    <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
-  </si>
-  <si>
     <t>Evaluation of the patient postoperative experience of two modes of WALANT-type anesthesia (lidocaine alone or combined with ropivacaine) used in ambulatory upper-extremity surgery 
  Evaluation de l’effet sur le vécu post opératoire de deux modes d’anesthésie de type WALANT (lidocaïne seule ou associée à la ropivacaïne) utilisés en chirurgie ambulatoire du membre supérieur</t>
   </si>
@@ -976,31 +976,49 @@
     <t>Etude comparative de l’efficacité articulaire et fonctionnelle du Mélange Equimoléculaire Oxygène-Protoxyde d’Azote (MEOPA) dans la rééducation des capsulites rétractiles d'épaule.</t>
   </si>
   <si>
+    <t>VTT</t>
+  </si>
+  <si>
+    <t>EPREX</t>
+  </si>
+  <si>
+    <t>DISPOSITIF LAR</t>
+  </si>
+  <si>
+    <t>AnatoAbord</t>
+  </si>
+  <si>
     <t>XENON</t>
   </si>
   <si>
-    <t>EPREX</t>
-  </si>
-  <si>
-    <t>DISPOSITIF LAR</t>
-  </si>
-  <si>
-    <t>VTT</t>
-  </si>
-  <si>
-    <t>AnatoAbord</t>
+    <t>MEOPA</t>
+  </si>
+  <si>
+    <t>Vibrioception</t>
+  </si>
+  <si>
+    <t>EPICORE</t>
   </si>
   <si>
     <t>U-GYN-QOL</t>
   </si>
   <si>
-    <t>MEOPA</t>
-  </si>
-  <si>
-    <t>Vibrioception</t>
-  </si>
-  <si>
-    <t>EPICORE</t>
+    <t>L'ERGONOME</t>
+  </si>
+  <si>
+    <t>NosoPink</t>
+  </si>
+  <si>
+    <t>IPSO FACTO</t>
+  </si>
+  <si>
+    <t>RIU</t>
+  </si>
+  <si>
+    <t>EDDRA-Repro</t>
+  </si>
+  <si>
+    <t>ALGISCAN</t>
   </si>
   <si>
     <t>AsirTest</t>
@@ -1009,58 +1027,37 @@
     <t>LAPRA</t>
   </si>
   <si>
-    <t>L'ERGONOME</t>
-  </si>
-  <si>
-    <t>EDDRA-Repro</t>
-  </si>
-  <si>
-    <t>RIU</t>
-  </si>
-  <si>
-    <t>NosoPink</t>
-  </si>
-  <si>
-    <t>IPSO FACTO</t>
-  </si>
-  <si>
-    <t>ALGISCAN</t>
+    <t>IRCAR</t>
+  </si>
+  <si>
+    <t>Rev-EHPAD</t>
+  </si>
+  <si>
+    <t>SensiCare</t>
   </si>
   <si>
     <t>PRO-CURE II</t>
   </si>
   <si>
+    <t>BBBox</t>
+  </si>
+  <si>
     <t>ZENKER LS</t>
   </si>
   <si>
     <t>RopiMol</t>
   </si>
   <si>
-    <t>IRCAR</t>
-  </si>
-  <si>
-    <t>SensiCare</t>
-  </si>
-  <si>
     <t>NATRITRAIL</t>
   </si>
   <si>
-    <t>Rev-EHPAD</t>
-  </si>
-  <si>
-    <t>BBBox</t>
-  </si>
-  <si>
-    <t>OPTI-PP</t>
-  </si>
-  <si>
     <t>IMODALS</t>
   </si>
   <si>
-    <t>OUPS</t>
-  </si>
-  <si>
-    <t>MEDREV</t>
+    <t>INR-Cap pilote</t>
+  </si>
+  <si>
+    <t>QALCIMUM</t>
   </si>
   <si>
     <t>LC SPRINT Sp</t>
@@ -1069,132 +1066,147 @@
     <t>ECHO-PARDIF</t>
   </si>
   <si>
+    <t>VIDADO</t>
+  </si>
+  <si>
     <t>SPA2-INVACARE</t>
-  </si>
-  <si>
-    <t>ERASM</t>
-  </si>
-  <si>
-    <t>PDT-Bactério</t>
-  </si>
-  <si>
-    <t>QALCIMUM</t>
   </si>
   <si>
     <t>VIDADO 
  VIDADO</t>
   </si>
   <si>
-    <t>VIDADO</t>
-  </si>
-  <si>
-    <t>INR-Cap pilote</t>
+    <t>PDT-Bactério</t>
+  </si>
+  <si>
+    <t>MEDREV</t>
+  </si>
+  <si>
+    <t>OPTI-PP</t>
+  </si>
+  <si>
+    <t>ERASM</t>
   </si>
   <si>
     <t>CPS-INFECTIO</t>
   </si>
   <si>
+    <t>OUPS</t>
+  </si>
+  <si>
     <t>LET</t>
   </si>
   <si>
+    <t>EDDRAPro</t>
+  </si>
+  <si>
+    <t>AUREVI 1</t>
+  </si>
+  <si>
+    <t>OASIS 2</t>
+  </si>
+  <si>
+    <t>RoboCurage ORL</t>
+  </si>
+  <si>
     <t>STRATOS</t>
   </si>
   <si>
-    <t>AUREVI 1</t>
-  </si>
-  <si>
-    <t>RoboCurage ORL</t>
-  </si>
-  <si>
     <t>NEURO COMP</t>
   </si>
   <si>
-    <t>OASIS 2</t>
-  </si>
-  <si>
-    <t>EDDRAPro</t>
-  </si>
-  <si>
     <t>NGUYEN</t>
   </si>
   <si>
     <t>GRECCAR 07</t>
   </si>
   <si>
+    <t>JI vs SC</t>
+  </si>
+  <si>
+    <t>AWAKE</t>
+  </si>
+  <si>
+    <t>IOAP Turrax</t>
+  </si>
+  <si>
+    <t>AlvéCare</t>
+  </si>
+  <si>
     <t>SISALens</t>
   </si>
   <si>
-    <t>JI vs SC</t>
-  </si>
-  <si>
-    <t>AWAKE</t>
+    <t>IMOOVE IT</t>
   </si>
   <si>
     <t>CoDiLoBP</t>
   </si>
   <si>
-    <t>IOAP Turrax</t>
-  </si>
-  <si>
     <t>HAVIR Bi</t>
   </si>
   <si>
-    <t>AlvéCare</t>
-  </si>
-  <si>
-    <t>IMOOVE IT</t>
+    <t>KETIS</t>
+  </si>
+  <si>
+    <t>HIPEOS</t>
+  </si>
+  <si>
+    <t>TrainStrain</t>
   </si>
   <si>
     <t>INREG 1</t>
   </si>
   <si>
+    <t>CAPEMBOL</t>
+  </si>
+  <si>
     <t>JECICA</t>
   </si>
   <si>
+    <t>NEEDLE-VISIO</t>
+  </si>
+  <si>
     <t>ACTIPARK</t>
   </si>
   <si>
-    <t>KETIS</t>
-  </si>
-  <si>
-    <t>HIPEOS</t>
-  </si>
-  <si>
-    <t>TrainStrain</t>
-  </si>
-  <si>
-    <t>CAPEMBOL</t>
-  </si>
-  <si>
-    <t>NEEDLE-VISIO</t>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>ISOCHRONE-AF</t>
+  </si>
+  <si>
+    <t>US ENMG</t>
+  </si>
+  <si>
+    <t>S100B-Céph</t>
+  </si>
+  <si>
+    <t>CalciCoach</t>
+  </si>
+  <si>
+    <t>AUTO-VTI</t>
+  </si>
+  <si>
+    <t>Shock-ED</t>
+  </si>
+  <si>
+    <t>APS Follow Up</t>
   </si>
   <si>
     <t>GenCInib-suni 
  GenCInib-suni</t>
   </si>
   <si>
-    <t>CalciCoach</t>
-  </si>
-  <si>
-    <t>US ENMG</t>
-  </si>
-  <si>
-    <t>ISOCHRONE-AF</t>
-  </si>
-  <si>
-    <t>Shock-ED</t>
-  </si>
-  <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t>AUTO-VTI</t>
-  </si>
-  <si>
-    <t>S100B-Céph</t>
-  </si>
-  <si>
-    <t>APS Follow Up</t>
+    <t>PREHENSTROKE</t>
+  </si>
+  <si>
+    <t>EFABE</t>
+  </si>
+  <si>
+    <t>SFATI GROPE</t>
+  </si>
+  <si>
+    <t>OCRIS</t>
   </si>
   <si>
     <t>AMIREMBOL</t>
@@ -1203,161 +1215,149 @@
     <t>MIROCALS</t>
   </si>
   <si>
-    <t>OCRIS</t>
-  </si>
-  <si>
-    <t>EFABE</t>
-  </si>
-  <si>
-    <t>PREHENSTROKE</t>
-  </si>
-  <si>
-    <t>SFATI GROPE</t>
+    <t>AMINO BESTDOSE</t>
+  </si>
+  <si>
+    <t>CRIC</t>
+  </si>
+  <si>
+    <t>CONCORDANCEVEF</t>
+  </si>
+  <si>
+    <t>PSORTI-BIO</t>
+  </si>
+  <si>
+    <t>LYMPHOARESIS</t>
   </si>
   <si>
     <t>VIRARE</t>
   </si>
   <si>
-    <t>AMINO BESTDOSE</t>
-  </si>
-  <si>
-    <t>LYMPHOARESIS</t>
+    <t>ANGIO SPIRUL</t>
+  </si>
+  <si>
+    <t>BEAUTIFY-2</t>
+  </si>
+  <si>
+    <t>OSE</t>
+  </si>
+  <si>
+    <t>BPCObs</t>
+  </si>
+  <si>
+    <t>IL-MAI</t>
+  </si>
+  <si>
+    <t>MOBŒDEM</t>
+  </si>
+  <si>
+    <t>LUNGSTRAIN</t>
   </si>
   <si>
     <t>ReproAuto_FEVG</t>
   </si>
   <si>
-    <t>CRIC</t>
-  </si>
-  <si>
-    <t>BEAUTIFY-2</t>
-  </si>
-  <si>
-    <t>IL-MAI</t>
-  </si>
-  <si>
-    <t>MOBŒDEM</t>
-  </si>
-  <si>
     <t>HEART-LINK</t>
   </si>
   <si>
-    <t>LUNGSTRAIN</t>
-  </si>
-  <si>
-    <t>ANGIO SPIRUL</t>
-  </si>
-  <si>
-    <t>PSORTI-BIO</t>
-  </si>
-  <si>
-    <t>CONCORDANCEVEF</t>
-  </si>
-  <si>
     <t>TECNAT</t>
   </si>
   <si>
-    <t>BPCObs</t>
-  </si>
-  <si>
-    <t>OSE</t>
-  </si>
-  <si>
     <t>ImagNimes</t>
   </si>
   <si>
-    <t>IMEGYN</t>
-  </si>
-  <si>
     <t>French PNEUDOS Study</t>
   </si>
   <si>
-    <t>ROPIWA</t>
+    <t>GT-PT</t>
+  </si>
+  <si>
+    <t>D-Lay-MS</t>
+  </si>
+  <si>
+    <t>VAGIBIOTE</t>
+  </si>
+  <si>
+    <t>OPTIFLUID</t>
+  </si>
+  <si>
+    <t>IRACTIV</t>
   </si>
   <si>
     <t>French SAFE ICU Study</t>
+  </si>
+  <si>
+    <t>EFABE Study 
+ EFABE</t>
   </si>
   <si>
     <t>AMINO BESTDOSE 
  AMINO BESTDOSE</t>
   </si>
   <si>
-    <t>GT-PT</t>
-  </si>
-  <si>
-    <t>IRACTIV</t>
+    <t>CPS MYELOME</t>
   </si>
   <si>
     <t>RoboLaps</t>
   </si>
   <si>
-    <t>CPS MYELOME</t>
+    <t>ROPIWA</t>
+  </si>
+  <si>
+    <t>VDSS</t>
+  </si>
+  <si>
+    <t>IMEGYN</t>
   </si>
   <si>
     <t>JITTOX</t>
   </si>
   <si>
-    <t>D-Lay-MS</t>
-  </si>
-  <si>
-    <t>EFABE Study 
- EFABE</t>
-  </si>
-  <si>
-    <t>VDSS</t>
-  </si>
-  <si>
     <t>ODYSSEE</t>
   </si>
   <si>
-    <t>OPTIFLUID</t>
-  </si>
-  <si>
-    <t>VAGIBIOTE</t>
+    <t>BEAUTIFY-3</t>
+  </si>
+  <si>
+    <t>CHEK BAC</t>
+  </si>
+  <si>
+    <t>NEMOLOC</t>
   </si>
   <si>
     <t>AVATAR</t>
   </si>
   <si>
+    <t>SIVAM</t>
+  </si>
+  <si>
+    <t>VACTICOV2</t>
+  </si>
+  <si>
     <t>OPTIVACC</t>
+  </si>
+  <si>
+    <t>VDSS 
+ VDSS</t>
   </si>
   <si>
     <t>D-Lay MS 
  D-Lay MS</t>
   </si>
   <si>
-    <t>CHEK BAC</t>
-  </si>
-  <si>
-    <t>VDSS 
- VDSS</t>
-  </si>
-  <si>
-    <t>SIVAM</t>
-  </si>
-  <si>
-    <t>NEMOLOC</t>
-  </si>
-  <si>
-    <t>BEAUTIFY-3</t>
-  </si>
-  <si>
-    <t>VACTICOV2</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>DRUG</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
-    <t>OTHER</t>
   </si>
   <si>
     <t>DIETARY_SUPPLEMENT</t>
@@ -1858,8 +1858,11 @@
       <c r="G6" t="s">
         <v>180</v>
       </c>
+      <c r="H6" t="s">
+        <v>318</v>
+      </c>
       <c r="I6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1879,10 +1882,10 @@
         <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1901,16 +1904,19 @@
       <c r="G8" t="s">
         <v>182</v>
       </c>
+      <c r="H8" t="s">
+        <v>320</v>
+      </c>
       <c r="I8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1922,10 +1928,10 @@
         <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1944,9 +1950,6 @@
       <c r="G10" t="s">
         <v>184</v>
       </c>
-      <c r="H10" t="s">
-        <v>320</v>
-      </c>
       <c r="I10" t="s">
         <v>439</v>
       </c>
@@ -1968,18 +1971,18 @@
         <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1990,19 +1993,16 @@
       <c r="G12" t="s">
         <v>186</v>
       </c>
-      <c r="H12" t="s">
-        <v>322</v>
-      </c>
       <c r="I12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2040,15 +2040,15 @@
         <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -2060,7 +2060,7 @@
         <v>189</v>
       </c>
       <c r="I15" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2083,15 +2083,15 @@
         <v>325</v>
       </c>
       <c r="I16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2102,9 +2102,6 @@
       <c r="G17" t="s">
         <v>191</v>
       </c>
-      <c r="H17" t="s">
-        <v>326</v>
-      </c>
       <c r="I17" t="s">
         <v>439</v>
       </c>
@@ -2145,8 +2142,11 @@
       <c r="G19" t="s">
         <v>193</v>
       </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
       <c r="I19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2174,10 +2174,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2188,8 +2188,11 @@
       <c r="G21" t="s">
         <v>195</v>
       </c>
+      <c r="H21" t="s">
+        <v>328</v>
+      </c>
       <c r="I21" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2208,8 +2211,11 @@
       <c r="G22" t="s">
         <v>196</v>
       </c>
+      <c r="H22" t="s">
+        <v>329</v>
+      </c>
       <c r="I22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2228,16 +2234,19 @@
       <c r="G23" t="s">
         <v>197</v>
       </c>
+      <c r="H23" t="s">
+        <v>330</v>
+      </c>
       <c r="I23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -2248,11 +2257,8 @@
       <c r="G24" t="s">
         <v>198</v>
       </c>
-      <c r="H24" t="s">
-        <v>328</v>
-      </c>
       <c r="I24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2271,9 +2277,6 @@
       <c r="G25" t="s">
         <v>199</v>
       </c>
-      <c r="H25" t="s">
-        <v>329</v>
-      </c>
       <c r="I25" t="s">
         <v>443</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I26" t="s">
         <v>439</v>
@@ -2318,10 +2321,10 @@
         <v>201</v>
       </c>
       <c r="H27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2341,10 +2344,10 @@
         <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2364,10 +2367,10 @@
         <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I29" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2386,9 +2389,6 @@
       <c r="G30" t="s">
         <v>204</v>
       </c>
-      <c r="H30" t="s">
-        <v>334</v>
-      </c>
       <c r="I30" t="s">
         <v>442</v>
       </c>
@@ -2409,8 +2409,11 @@
       <c r="G31" t="s">
         <v>205</v>
       </c>
+      <c r="H31" t="s">
+        <v>335</v>
+      </c>
       <c r="I31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2429,6 +2432,9 @@
       <c r="G32" t="s">
         <v>206</v>
       </c>
+      <c r="H32" t="s">
+        <v>336</v>
+      </c>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -2450,10 +2456,10 @@
         <v>207</v>
       </c>
       <c r="H33" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I33" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2472,19 +2478,16 @@
       <c r="G34" t="s">
         <v>208</v>
       </c>
-      <c r="H34" t="s">
-        <v>336</v>
-      </c>
       <c r="I34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -2495,16 +2498,19 @@
       <c r="G35" t="s">
         <v>209</v>
       </c>
+      <c r="H35" t="s">
+        <v>338</v>
+      </c>
       <c r="I35" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2516,7 +2522,7 @@
         <v>210</v>
       </c>
       <c r="H36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I36" t="s">
         <v>441</v>
@@ -2539,18 +2545,18 @@
         <v>211</v>
       </c>
       <c r="H37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I37" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -2561,19 +2567,16 @@
       <c r="G38" t="s">
         <v>212</v>
       </c>
-      <c r="H38" t="s">
-        <v>339</v>
-      </c>
       <c r="I38" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2585,7 +2588,7 @@
         <v>213</v>
       </c>
       <c r="H39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I39" t="s">
         <v>443</v>
@@ -2607,11 +2610,8 @@
       <c r="G40" t="s">
         <v>214</v>
       </c>
-      <c r="H40" t="s">
-        <v>341</v>
-      </c>
       <c r="I40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2639,10 +2639,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2703,15 +2703,15 @@
         <v>345</v>
       </c>
       <c r="I44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -2726,15 +2726,15 @@
         <v>346</v>
       </c>
       <c r="I45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -2749,7 +2749,7 @@
         <v>347</v>
       </c>
       <c r="I46" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2768,16 +2768,19 @@
       <c r="G47" t="s">
         <v>221</v>
       </c>
+      <c r="H47" t="s">
+        <v>348</v>
+      </c>
       <c r="I47" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -2789,10 +2792,10 @@
         <v>222</v>
       </c>
       <c r="H48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I48" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2802,8 +2805,8 @@
       <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="C49" t="s">
-        <v>64</v>
+      <c r="D49" t="s">
+        <v>149</v>
       </c>
       <c r="F49" t="s">
         <v>167</v>
@@ -2812,10 +2815,7 @@
         <v>223</v>
       </c>
       <c r="H49" t="s">
-        <v>349</v>
-      </c>
-      <c r="I49" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2826,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
         <v>167</v>
@@ -2835,7 +2835,7 @@
         <v>224</v>
       </c>
       <c r="H50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I50" t="s">
         <v>439</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
         <v>167</v>
@@ -2858,10 +2858,10 @@
         <v>225</v>
       </c>
       <c r="H51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2872,7 +2872,7 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
         <v>167</v>
@@ -2881,10 +2881,10 @@
         <v>226</v>
       </c>
       <c r="H52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2894,8 +2894,8 @@
       <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
-        <v>149</v>
+      <c r="C53" t="s">
+        <v>67</v>
       </c>
       <c r="F53" t="s">
         <v>167</v>
@@ -2904,15 +2904,18 @@
         <v>227</v>
       </c>
       <c r="H53" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -2924,18 +2927,18 @@
         <v>228</v>
       </c>
       <c r="H54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -2946,11 +2949,8 @@
       <c r="G55" t="s">
         <v>229</v>
       </c>
-      <c r="H55" t="s">
-        <v>355</v>
-      </c>
       <c r="I55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2973,7 +2973,7 @@
         <v>356</v>
       </c>
       <c r="I56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2996,7 +2996,7 @@
         <v>357</v>
       </c>
       <c r="I57" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3015,6 +3015,9 @@
       <c r="G58" t="s">
         <v>232</v>
       </c>
+      <c r="H58" t="s">
+        <v>358</v>
+      </c>
       <c r="I58" t="s">
         <v>441</v>
       </c>
@@ -3036,10 +3039,10 @@
         <v>233</v>
       </c>
       <c r="H59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I59" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3059,7 +3062,7 @@
         <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I60" t="s">
         <v>439</v>
@@ -3082,7 +3085,7 @@
         <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I61" t="s">
         <v>439</v>
@@ -3105,7 +3108,7 @@
         <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I62" t="s">
         <v>441</v>
@@ -3127,11 +3130,8 @@
       <c r="G63" t="s">
         <v>237</v>
       </c>
-      <c r="H63" t="s">
-        <v>362</v>
-      </c>
       <c r="I63" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3154,7 +3154,7 @@
         <v>363</v>
       </c>
       <c r="I64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3177,15 +3177,15 @@
         <v>364</v>
       </c>
       <c r="I65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -3196,19 +3196,16 @@
       <c r="G66" t="s">
         <v>240</v>
       </c>
-      <c r="H66" t="s">
-        <v>365</v>
-      </c>
       <c r="I66" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -3220,10 +3217,10 @@
         <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I67" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3243,7 +3240,7 @@
         <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I68" t="s">
         <v>439</v>
@@ -3266,10 +3263,10 @@
         <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3289,18 +3286,18 @@
         <v>244</v>
       </c>
       <c r="H70" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I70" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
@@ -3312,10 +3309,10 @@
         <v>245</v>
       </c>
       <c r="H71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I71" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3335,18 +3332,18 @@
         <v>246</v>
       </c>
       <c r="H72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I72" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -3358,10 +3355,10 @@
         <v>247</v>
       </c>
       <c r="H73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I73" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3380,8 +3377,11 @@
       <c r="G74" t="s">
         <v>248</v>
       </c>
+      <c r="H74" t="s">
+        <v>372</v>
+      </c>
       <c r="I74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3404,15 +3404,15 @@
         <v>373</v>
       </c>
       <c r="I75" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
@@ -3427,15 +3427,15 @@
         <v>374</v>
       </c>
       <c r="I76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>91</v>
@@ -3443,11 +3443,14 @@
       <c r="F77" t="s">
         <v>170</v>
       </c>
+      <c r="G77" t="s">
+        <v>251</v>
+      </c>
       <c r="H77" t="s">
         <v>375</v>
       </c>
       <c r="I77" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3464,21 +3467,21 @@
         <v>170</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H78" t="s">
         <v>376</v>
       </c>
       <c r="I78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>93</v>
@@ -3487,7 +3490,7 @@
         <v>170</v>
       </c>
       <c r="G79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
         <v>377</v>
@@ -3510,21 +3513,21 @@
         <v>170</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
         <v>378</v>
       </c>
       <c r="I80" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
@@ -3532,14 +3535,11 @@
       <c r="F81" t="s">
         <v>170</v>
       </c>
-      <c r="G81" t="s">
-        <v>254</v>
-      </c>
       <c r="H81" t="s">
         <v>379</v>
       </c>
       <c r="I81" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3562,7 +3562,7 @@
         <v>380</v>
       </c>
       <c r="I82" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3595,8 +3595,8 @@
       <c r="B84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" t="s">
-        <v>150</v>
+      <c r="C84" t="s">
+        <v>98</v>
       </c>
       <c r="F84" t="s">
         <v>171</v>
@@ -3607,6 +3607,9 @@
       <c r="H84" t="s">
         <v>382</v>
       </c>
+      <c r="I84" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -3616,7 +3619,7 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
         <v>171</v>
@@ -3639,7 +3642,7 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
         <v>171</v>
@@ -3651,7 +3654,7 @@
         <v>384</v>
       </c>
       <c r="I86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3662,7 +3665,7 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" t="s">
         <v>171</v>
@@ -3674,7 +3677,7 @@
         <v>385</v>
       </c>
       <c r="I87" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3685,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" t="s">
         <v>171</v>
@@ -3697,7 +3700,7 @@
         <v>386</v>
       </c>
       <c r="I88" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3708,7 +3711,7 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
         <v>171</v>
@@ -3720,7 +3723,7 @@
         <v>387</v>
       </c>
       <c r="I89" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3731,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F90" t="s">
         <v>171</v>
@@ -3743,7 +3746,7 @@
         <v>388</v>
       </c>
       <c r="I90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3754,7 +3757,7 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F91" t="s">
         <v>171</v>
@@ -3766,7 +3769,7 @@
         <v>389</v>
       </c>
       <c r="I91" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3776,8 +3779,8 @@
       <c r="B92" t="s">
         <v>13</v>
       </c>
-      <c r="C92" t="s">
-        <v>105</v>
+      <c r="D92" t="s">
+        <v>150</v>
       </c>
       <c r="F92" t="s">
         <v>171</v>
@@ -3788,9 +3791,6 @@
       <c r="H92" t="s">
         <v>390</v>
       </c>
-      <c r="I92" t="s">
-        <v>439</v>
-      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -3812,7 +3812,7 @@
         <v>391</v>
       </c>
       <c r="I93" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3835,7 +3835,7 @@
         <v>392</v>
       </c>
       <c r="I94" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3858,7 +3858,7 @@
         <v>393</v>
       </c>
       <c r="I95" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3901,7 +3901,7 @@
         <v>394</v>
       </c>
       <c r="I97" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3924,7 +3924,7 @@
         <v>395</v>
       </c>
       <c r="I98" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3947,7 +3947,7 @@
         <v>396</v>
       </c>
       <c r="I99" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3993,15 +3993,15 @@
         <v>398</v>
       </c>
       <c r="I101" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
         <v>115</v>
@@ -4016,7 +4016,7 @@
         <v>399</v>
       </c>
       <c r="I102" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4039,15 +4039,15 @@
         <v>400</v>
       </c>
       <c r="I103" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
@@ -4062,7 +4062,7 @@
         <v>401</v>
       </c>
       <c r="I104" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4085,7 +4085,7 @@
         <v>402</v>
       </c>
       <c r="I105" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4108,7 +4108,7 @@
         <v>403</v>
       </c>
       <c r="I106" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4154,7 +4154,7 @@
         <v>405</v>
       </c>
       <c r="I108" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4200,7 +4200,7 @@
         <v>407</v>
       </c>
       <c r="I110" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4246,7 +4246,7 @@
         <v>409</v>
       </c>
       <c r="I112" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4269,7 +4269,7 @@
         <v>410</v>
       </c>
       <c r="I113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4292,7 +4292,7 @@
         <v>411</v>
       </c>
       <c r="I114" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4315,7 +4315,7 @@
         <v>412</v>
       </c>
       <c r="I115" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4348,8 +4348,8 @@
       <c r="B117" t="s">
         <v>13</v>
       </c>
-      <c r="C117" t="s">
-        <v>130</v>
+      <c r="D117" t="s">
+        <v>151</v>
       </c>
       <c r="F117" t="s">
         <v>174</v>
@@ -4360,9 +4360,6 @@
       <c r="H117" t="s">
         <v>414</v>
       </c>
-      <c r="I117" t="s">
-        <v>439</v>
-      </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -4371,8 +4368,8 @@
       <c r="B118" t="s">
         <v>13</v>
       </c>
-      <c r="D118" t="s">
-        <v>151</v>
+      <c r="C118" t="s">
+        <v>130</v>
       </c>
       <c r="F118" t="s">
         <v>174</v>
@@ -4383,6 +4380,9 @@
       <c r="H118" t="s">
         <v>415</v>
       </c>
+      <c r="I118" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
@@ -4404,7 +4404,7 @@
         <v>416</v>
       </c>
       <c r="I119" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4414,8 +4414,8 @@
       <c r="B120" t="s">
         <v>13</v>
       </c>
-      <c r="D120" t="s">
-        <v>152</v>
+      <c r="C120" t="s">
+        <v>132</v>
       </c>
       <c r="F120" t="s">
         <v>174</v>
@@ -4426,6 +4426,9 @@
       <c r="H120" t="s">
         <v>417</v>
       </c>
+      <c r="I120" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
@@ -4434,8 +4437,8 @@
       <c r="B121" t="s">
         <v>13</v>
       </c>
-      <c r="D121" t="s">
-        <v>153</v>
+      <c r="C121" t="s">
+        <v>133</v>
       </c>
       <c r="F121" t="s">
         <v>174</v>
@@ -4446,6 +4449,9 @@
       <c r="H121" t="s">
         <v>418</v>
       </c>
+      <c r="I121" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
@@ -4455,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F122" t="s">
         <v>174</v>
@@ -4467,7 +4473,7 @@
         <v>419</v>
       </c>
       <c r="I122" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4477,8 +4483,8 @@
       <c r="B123" t="s">
         <v>13</v>
       </c>
-      <c r="C123" t="s">
-        <v>133</v>
+      <c r="D123" t="s">
+        <v>152</v>
       </c>
       <c r="F123" t="s">
         <v>174</v>
@@ -4489,9 +4495,6 @@
       <c r="H123" t="s">
         <v>420</v>
       </c>
-      <c r="I123" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
@@ -4500,8 +4503,8 @@
       <c r="B124" t="s">
         <v>13</v>
       </c>
-      <c r="C124" t="s">
-        <v>134</v>
+      <c r="D124" t="s">
+        <v>153</v>
       </c>
       <c r="F124" t="s">
         <v>174</v>
@@ -4512,9 +4515,6 @@
       <c r="H124" t="s">
         <v>421</v>
       </c>
-      <c r="I124" t="s">
-        <v>439</v>
-      </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
@@ -4523,8 +4523,8 @@
       <c r="B125" t="s">
         <v>13</v>
       </c>
-      <c r="C125" t="s">
-        <v>135</v>
+      <c r="D125" t="s">
+        <v>154</v>
       </c>
       <c r="F125" t="s">
         <v>174</v>
@@ -4535,9 +4535,6 @@
       <c r="H125" t="s">
         <v>422</v>
       </c>
-      <c r="I125" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
@@ -4547,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F126" t="s">
         <v>174</v>
@@ -4559,7 +4556,7 @@
         <v>423</v>
       </c>
       <c r="I126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4570,7 +4567,7 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F127" t="s">
         <v>174</v>
@@ -4582,7 +4579,7 @@
         <v>424</v>
       </c>
       <c r="I127" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4592,8 +4589,8 @@
       <c r="B128" t="s">
         <v>13</v>
       </c>
-      <c r="D128" t="s">
-        <v>154</v>
+      <c r="C128" t="s">
+        <v>137</v>
       </c>
       <c r="F128" t="s">
         <v>174</v>
@@ -4604,6 +4601,9 @@
       <c r="H128" t="s">
         <v>425</v>
       </c>
+      <c r="I128" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
@@ -4625,7 +4625,7 @@
         <v>426</v>
       </c>
       <c r="I129" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4648,7 +4648,7 @@
         <v>427</v>
       </c>
       <c r="I130" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4671,7 +4671,7 @@
         <v>428</v>
       </c>
       <c r="I131" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4694,7 +4694,7 @@
         <v>429</v>
       </c>
       <c r="I132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4740,7 +4740,7 @@
         <v>431</v>
       </c>
       <c r="I134" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4750,8 +4750,8 @@
       <c r="B135" t="s">
         <v>13</v>
       </c>
-      <c r="D135" t="s">
-        <v>155</v>
+      <c r="C135" t="s">
+        <v>144</v>
       </c>
       <c r="F135" t="s">
         <v>175</v>
@@ -4762,6 +4762,9 @@
       <c r="H135" t="s">
         <v>432</v>
       </c>
+      <c r="I135" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
@@ -4771,7 +4774,7 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F136" t="s">
         <v>175</v>
@@ -4783,7 +4786,7 @@
         <v>433</v>
       </c>
       <c r="I136" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4793,8 +4796,8 @@
       <c r="B137" t="s">
         <v>13</v>
       </c>
-      <c r="D137" t="s">
-        <v>156</v>
+      <c r="C137" t="s">
+        <v>146</v>
       </c>
       <c r="F137" t="s">
         <v>175</v>
@@ -4805,6 +4808,9 @@
       <c r="H137" t="s">
         <v>434</v>
       </c>
+      <c r="I137" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
@@ -4814,7 +4820,7 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F138" t="s">
         <v>175</v>
@@ -4826,7 +4832,7 @@
         <v>435</v>
       </c>
       <c r="I138" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4837,7 +4843,7 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F139" t="s">
         <v>175</v>
@@ -4849,7 +4855,7 @@
         <v>436</v>
       </c>
       <c r="I139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4859,8 +4865,8 @@
       <c r="B140" t="s">
         <v>13</v>
       </c>
-      <c r="C140" t="s">
-        <v>147</v>
+      <c r="D140" t="s">
+        <v>155</v>
       </c>
       <c r="F140" t="s">
         <v>175</v>
@@ -4871,9 +4877,6 @@
       <c r="H140" t="s">
         <v>437</v>
       </c>
-      <c r="I140" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
@@ -4882,8 +4885,8 @@
       <c r="B141" t="s">
         <v>13</v>
       </c>
-      <c r="C141" t="s">
-        <v>148</v>
+      <c r="D141" t="s">
+        <v>156</v>
       </c>
       <c r="F141" t="s">
         <v>175</v>
@@ -4894,9 +4897,6 @@
       <c r="H141" t="s">
         <v>438</v>
       </c>
-      <c r="I141" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
@@ -4912,7 +4912,7 @@
         <v>315</v>
       </c>
       <c r="H142" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:9">

--- a/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage2/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="486">
   <si>
     <t>statut</t>
   </si>
@@ -55,319 +55,346 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00153231</t>
   </si>
   <si>
+    <t>NCT00370877</t>
+  </si>
+  <si>
     <t>NCT01189188</t>
   </si>
   <si>
-    <t>NCT00370877</t>
-  </si>
-  <si>
     <t>NCT00264589</t>
   </si>
   <si>
+    <t>NCT03867071</t>
+  </si>
+  <si>
     <t>NCT01647802</t>
   </si>
   <si>
-    <t>NCT03867071</t>
+    <t>NCT01644760</t>
+  </si>
+  <si>
+    <t>NCT01647815</t>
   </si>
   <si>
     <t>NCT03614598</t>
   </si>
   <si>
-    <t>NCT01647815</t>
-  </si>
-  <si>
-    <t>NCT01644760</t>
-  </si>
-  <si>
     <t>NCT01167803</t>
   </si>
   <si>
     <t>NCT01402765</t>
   </si>
   <si>
+    <t>NCT01795443</t>
+  </si>
+  <si>
+    <t>NCT00153257</t>
+  </si>
+  <si>
+    <t>NCT01134588</t>
+  </si>
+  <si>
+    <t>NCT01543360</t>
+  </si>
+  <si>
+    <t>NCT01545089</t>
+  </si>
+  <si>
+    <t>NCT01390454</t>
+  </si>
+  <si>
     <t>NCT01087229</t>
   </si>
   <si>
-    <t>NCT01795443</t>
-  </si>
-  <si>
-    <t>NCT00153257</t>
-  </si>
-  <si>
-    <t>NCT01390454</t>
-  </si>
-  <si>
-    <t>NCT01543360</t>
-  </si>
-  <si>
-    <t>NCT01545089</t>
-  </si>
-  <si>
-    <t>NCT01134588</t>
+    <t>NCT01292044</t>
+  </si>
+  <si>
+    <t>NCT01323049</t>
+  </si>
+  <si>
+    <t>NCT01259648</t>
+  </si>
+  <si>
+    <t>NCT01743105</t>
+  </si>
+  <si>
+    <t>NCT01800084</t>
+  </si>
+  <si>
+    <t>NCT01114347</t>
   </si>
   <si>
     <t>NCT01746433</t>
   </si>
   <si>
-    <t>NCT01114347</t>
+    <t>NCT01685645</t>
   </si>
   <si>
     <t>NCT01750944</t>
   </si>
   <si>
+    <t>NCT02888158</t>
+  </si>
+  <si>
     <t>NCT01785368</t>
   </si>
   <si>
-    <t>NCT01323049</t>
-  </si>
-  <si>
-    <t>NCT01259648</t>
-  </si>
-  <si>
-    <t>NCT01743105</t>
-  </si>
-  <si>
-    <t>NCT01685645</t>
-  </si>
-  <si>
-    <t>NCT01800084</t>
-  </si>
-  <si>
-    <t>NCT02888158</t>
-  </si>
-  <si>
-    <t>NCT01292044</t>
+    <t>NCT01541059</t>
+  </si>
+  <si>
+    <t>NCT02255994</t>
+  </si>
+  <si>
+    <t>NCT01566058</t>
+  </si>
+  <si>
+    <t>NCT01403220</t>
+  </si>
+  <si>
+    <t>NCT01819714</t>
+  </si>
+  <si>
+    <t>NCT01404819</t>
+  </si>
+  <si>
+    <t>NCT01101087</t>
+  </si>
+  <si>
+    <t>NCT02519764</t>
+  </si>
+  <si>
+    <t>NCT01739426</t>
+  </si>
+  <si>
+    <t>NCT02118259</t>
   </si>
   <si>
     <t>NCT02329613</t>
   </si>
   <si>
-    <t>NCT02118259</t>
-  </si>
-  <si>
-    <t>NCT01819714</t>
-  </si>
-  <si>
-    <t>NCT01404819</t>
-  </si>
-  <si>
-    <t>NCT02255994</t>
-  </si>
-  <si>
-    <t>NCT01566058</t>
-  </si>
-  <si>
-    <t>NCT01739426</t>
-  </si>
-  <si>
-    <t>NCT01403220</t>
-  </si>
-  <si>
-    <t>NCT01541059</t>
-  </si>
-  <si>
-    <t>NCT01101087</t>
-  </si>
-  <si>
-    <t>NCT02519764</t>
+    <t>NCT02598115</t>
+  </si>
+  <si>
+    <t>NCT01559168</t>
+  </si>
+  <si>
+    <t>NCT01649401</t>
+  </si>
+  <si>
+    <t>NCT02610452</t>
+  </si>
+  <si>
+    <t>NCT02614638</t>
+  </si>
+  <si>
+    <t>NCT02664636</t>
+  </si>
+  <si>
+    <t>NCT02400151</t>
   </si>
   <si>
     <t>NCT02059759</t>
   </si>
   <si>
+    <t>NCT02636829</t>
+  </si>
+  <si>
     <t>NCT02614573</t>
   </si>
   <si>
-    <t>NCT02636829</t>
-  </si>
-  <si>
-    <t>NCT01649401</t>
+    <t>NCT02380820</t>
+  </si>
+  <si>
+    <t>NCT02126930</t>
+  </si>
+  <si>
+    <t>NCT02392390</t>
   </si>
   <si>
     <t>NCT01789801</t>
   </si>
   <si>
-    <t>NCT02400151</t>
-  </si>
-  <si>
-    <t>NCT02380820</t>
-  </si>
-  <si>
-    <t>NCT02392390</t>
-  </si>
-  <si>
-    <t>NCT02598115</t>
-  </si>
-  <si>
-    <t>NCT02614638</t>
-  </si>
-  <si>
-    <t>NCT02664636</t>
-  </si>
-  <si>
-    <t>NCT02126930</t>
-  </si>
-  <si>
-    <t>NCT01559168</t>
-  </si>
-  <si>
-    <t>NCT02610452</t>
+    <t>NCT02609191</t>
+  </si>
+  <si>
+    <t>NCT02614651</t>
+  </si>
+  <si>
+    <t>NCT02273687</t>
+  </si>
+  <si>
+    <t>NCT02610647</t>
+  </si>
+  <si>
+    <t>NCT01536301</t>
   </si>
   <si>
     <t>NCT02325063</t>
   </si>
   <si>
-    <t>NCT02273687</t>
-  </si>
-  <si>
-    <t>NCT02614651</t>
-  </si>
-  <si>
     <t>NCT01905644</t>
   </si>
   <si>
     <t>NCT02269020</t>
   </si>
   <si>
-    <t>NCT02609191</t>
-  </si>
-  <si>
-    <t>NCT01536301</t>
-  </si>
-  <si>
-    <t>NCT02610647</t>
-  </si>
-  <si>
     <t>NCT04007302</t>
   </si>
   <si>
+    <t>NCT03162757</t>
+  </si>
+  <si>
     <t>NCT02805049</t>
   </si>
   <si>
+    <t>NCT03356847</t>
+  </si>
+  <si>
+    <t>NCT01558856</t>
+  </si>
+  <si>
+    <t>NCT03998930</t>
+  </si>
+  <si>
+    <t>NCT02116387</t>
+  </si>
+  <si>
     <t>NCT01380860</t>
   </si>
   <si>
-    <t>NCT03162757</t>
-  </si>
-  <si>
-    <t>NCT03998930</t>
+    <t>NCT03633578</t>
+  </si>
+  <si>
+    <t>NCT02583997</t>
   </si>
   <si>
     <t>NCT02598141</t>
   </si>
   <si>
-    <t>NCT02583997</t>
-  </si>
-  <si>
-    <t>NCT03356847</t>
-  </si>
-  <si>
-    <t>NCT02116387</t>
-  </si>
-  <si>
-    <t>NCT03633578</t>
-  </si>
-  <si>
-    <t>NCT01558856</t>
-  </si>
-  <si>
     <t>NCT02299440</t>
   </si>
   <si>
+    <t>NCT03407963</t>
+  </si>
+  <si>
+    <t>NCT02892227</t>
+  </si>
+  <si>
+    <t>NCT02739880</t>
+  </si>
+  <si>
+    <t>NCT02932696</t>
+  </si>
+  <si>
     <t>NCT03603470</t>
   </si>
   <si>
-    <t>NCT02932696</t>
-  </si>
-  <si>
-    <t>NCT02739880</t>
-  </si>
-  <si>
-    <t>NCT03407963</t>
-  </si>
-  <si>
-    <t>NCT02892227</t>
+    <t>NCT03244813</t>
   </si>
   <si>
     <t>NCT04463147</t>
   </si>
   <si>
-    <t>NCT03244813</t>
+    <t>NCT03868189</t>
+  </si>
+  <si>
+    <t>NCT03600636</t>
+  </si>
+  <si>
+    <t>NCT02304679</t>
+  </si>
+  <si>
+    <t>NCT03564951</t>
+  </si>
+  <si>
+    <t>NCT02664623</t>
+  </si>
+  <si>
+    <t>NCT02683304</t>
+  </si>
+  <si>
+    <t>NCT04360304</t>
   </si>
   <si>
     <t>NCT03562754</t>
   </si>
   <si>
-    <t>NCT03564951</t>
-  </si>
-  <si>
-    <t>NCT03868189</t>
-  </si>
-  <si>
-    <t>NCT02683304</t>
-  </si>
-  <si>
-    <t>NCT02664623</t>
-  </si>
-  <si>
-    <t>NCT04360304</t>
-  </si>
-  <si>
-    <t>NCT02304679</t>
-  </si>
-  <si>
-    <t>NCT03600636</t>
+    <t>NCT03039673</t>
+  </si>
+  <si>
+    <t>NCT03628248</t>
   </si>
   <si>
     <t>NCT03946488</t>
   </si>
   <si>
+    <t>NCT05019482</t>
+  </si>
+  <si>
+    <t>NCT04943133</t>
+  </si>
+  <si>
     <t>NCT04473508</t>
   </si>
   <si>
-    <t>NCT04943133</t>
-  </si>
-  <si>
-    <t>NCT05019482</t>
-  </si>
-  <si>
     <t>NCT03636789</t>
   </si>
   <si>
-    <t>NCT03628248</t>
-  </si>
-  <si>
-    <t>NCT03039673</t>
+    <t>NCT04802226</t>
   </si>
   <si>
     <t>NCT04178148</t>
   </si>
   <si>
+    <t>NCT04366453</t>
+  </si>
+  <si>
+    <t>NCT04274595</t>
+  </si>
+  <si>
+    <t>NCT05415605</t>
+  </si>
+  <si>
+    <t>NCT03704545</t>
+  </si>
+  <si>
+    <t>NCT03280797</t>
+  </si>
+  <si>
+    <t>NCT03428165</t>
+  </si>
+  <si>
+    <t>NCT04703348</t>
+  </si>
+  <si>
+    <t>NCT04641169</t>
+  </si>
+  <si>
+    <t>NCT04742374</t>
+  </si>
+  <si>
     <t>NCT04174092</t>
   </si>
   <si>
-    <t>NCT04641169</t>
-  </si>
-  <si>
-    <t>NCT04274595</t>
-  </si>
-  <si>
-    <t>NCT04742374</t>
+    <t>NCT02742025</t>
+  </si>
+  <si>
+    <t>NCT04957186</t>
   </si>
   <si>
     <t>NCT03646786</t>
@@ -376,97 +403,136 @@
     <t>NCT03464760</t>
   </si>
   <si>
-    <t>NCT04957186</t>
-  </si>
-  <si>
-    <t>NCT04802226</t>
-  </si>
-  <si>
-    <t>NCT03704545</t>
-  </si>
-  <si>
-    <t>NCT03280797</t>
-  </si>
-  <si>
     <t>NCT03867305</t>
   </si>
   <si>
-    <t>NCT05415605</t>
-  </si>
-  <si>
-    <t>NCT04366453</t>
-  </si>
-  <si>
-    <t>NCT02742025</t>
-  </si>
-  <si>
-    <t>NCT03428165</t>
-  </si>
-  <si>
-    <t>NCT04703348</t>
+    <t>NCT01817166</t>
+  </si>
+  <si>
+    <t>NCT04002843</t>
+  </si>
+  <si>
+    <t>NCT03194126</t>
+  </si>
+  <si>
+    <t>NCT04301401</t>
+  </si>
+  <si>
+    <t>NCT05654818</t>
+  </si>
+  <si>
+    <t>NCT05210855</t>
+  </si>
+  <si>
+    <t>NCT05343299</t>
+  </si>
+  <si>
+    <t>NCT05565131</t>
+  </si>
+  <si>
+    <t>NCT04947904</t>
   </si>
   <si>
     <t>NCT03634124</t>
   </si>
   <si>
-    <t>NCT01817166</t>
-  </si>
-  <si>
-    <t>NCT04301401</t>
-  </si>
-  <si>
-    <t>NCT04947904</t>
+    <t>NCT04309942</t>
+  </si>
+  <si>
+    <t>NCT01320215</t>
   </si>
   <si>
     <t>NCT05329337</t>
   </si>
   <si>
-    <t>NCT04309942</t>
-  </si>
-  <si>
-    <t>NCT01320215</t>
-  </si>
-  <si>
-    <t>NCT05343299</t>
-  </si>
-  <si>
-    <t>NCT05654818</t>
-  </si>
-  <si>
-    <t>NCT03194126</t>
-  </si>
-  <si>
-    <t>NCT04002843</t>
-  </si>
-  <si>
-    <t>NCT05565131</t>
+    <t>NCT02735902</t>
+  </si>
+  <si>
+    <t>NCT05890807</t>
+  </si>
+  <si>
+    <t>NCT03929952</t>
+  </si>
+  <si>
+    <t>NCT05825547</t>
+  </si>
+  <si>
+    <t>NCT05840003</t>
+  </si>
+  <si>
+    <t>NCT05058313</t>
+  </si>
+  <si>
+    <t>NCT05655351</t>
+  </si>
+  <si>
+    <t>NCT03964571</t>
+  </si>
+  <si>
+    <t>NCT05389202</t>
   </si>
   <si>
     <t>NCT05449340</t>
   </si>
   <si>
-    <t>NCT03964571</t>
-  </si>
-  <si>
-    <t>NCT03929952</t>
-  </si>
-  <si>
-    <t>NCT02735902</t>
-  </si>
-  <si>
-    <t>NCT05058313</t>
-  </si>
-  <si>
-    <t>NCT05655351</t>
-  </si>
-  <si>
     <t>NCT05060146</t>
   </si>
   <si>
+    <t>NCT06235411</t>
+  </si>
+  <si>
+    <t>NCT06111248</t>
+  </si>
+  <si>
+    <t>2005-005801-40</t>
+  </si>
+  <si>
+    <t>2006-005537-38</t>
+  </si>
+  <si>
+    <t>2008-007090-20</t>
+  </si>
+  <si>
+    <t>2009-017126-39</t>
+  </si>
+  <si>
+    <t>2008-007161-23</t>
+  </si>
+  <si>
+    <t>2009-018169-12</t>
+  </si>
+  <si>
+    <t>2011-004972-13</t>
+  </si>
+  <si>
+    <t>2011-002551-33</t>
+  </si>
+  <si>
     <t>2015-000060-34</t>
   </si>
   <si>
-    <t>2014-005534-55</t>
+    <t>2014-001327-71</t>
+  </si>
+  <si>
+    <t>2014-004668-40</t>
+  </si>
+  <si>
+    <t>2011-004140-22</t>
+  </si>
+  <si>
+    <t>2014-001300-22</t>
+  </si>
+  <si>
+    <t>2014-001324-30</t>
+  </si>
+  <si>
+    <t>2016-002708-17</t>
+  </si>
+  <si>
+    <t>2012-005821-59</t>
+  </si>
+  <si>
+    <t>2019-001837-15</t>
   </si>
   <si>
     <t>2021-003511-25</t>
@@ -478,7 +544,7 @@
     <t>2019-001678-26</t>
   </si>
   <si>
-    <t>2019-001837-15</t>
+    <t>2016-000352-98</t>
   </si>
   <si>
     <t>2022-002157-25</t>
@@ -487,15 +553,12 @@
     <t>2013-000910-40</t>
   </si>
   <si>
+    <t>2019-002236-91</t>
+  </si>
+  <si>
     <t>2021-006493-23</t>
   </si>
   <si>
-    <t>2008-007163-16</t>
-  </si>
-  <si>
-    <t>2008-007161-23</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -544,312 +607,344 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Clinical Evaluation of Morbidity and Efficacy of Posterior IVS (Infracoccygeal Sacropexy), in Comparison to the Standard Sacrospinous Suspension in the Surgical Treatment of Vaginal Vault Prolapse by the Vaginal Route.</t>
   </si>
   <si>
+    <t>Recombinant Human Activated Factor VII as Salvage Therapy in Women With Severe Postpartum Hemorrhage</t>
+  </si>
+  <si>
     <t>Ultrasound Guidance for Radial Arterial Blood Sampling</t>
   </si>
   <si>
-    <t>Recombinant Human Activated Factor VII as Salvage Therapy in Women With Severe Postpartum Hemorrhage</t>
+    <t>Etude de prédiction de la réponse à une chimiothérapie d’induction de 3 cures de Docetaxel, Cisplatine et 5-Fluorouracile, des carcinomes épidermoïdes des voies aéro-digestives supérieures de stades T3 ou T4, tout N, MO, inopérables, par analyse en micro-puces des modifications transcriptionnelles tumorales induites par la première cure</t>
+  </si>
+  <si>
+    <t>Analgésie post-opératoire après prothèse totale de hanche : Intérêt de l’infiltration péri articulaire d’anesthésiques locaux</t>
   </si>
   <si>
     <t>Effects of an Individualized Training Program on Cardiovascular Function at Rest and During Exercise in Obese and in Type 2 Diabetic Subjects</t>
   </si>
   <si>
+    <t>Early Administration of Recombinant Erythropoietin (RHEPO) in Transfusion Savings in Trauma Patients</t>
+  </si>
+  <si>
     <t>Cross-over Study of Three Modular Devices for Aid in Patient Standing and Transfer</t>
   </si>
   <si>
-    <t>Early Administration of Recombinant Erythropoietin (RHEPO) in Transfusion Savings in Trauma Patients</t>
+    <t>Respiratory Variations in the Diameter of the Inferior Vena Cava With Spontaneous Ventilation: A Physiological Study on Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Ultrasound Comparison of the Surface of the Subclavian Vein (Arm in Abduction (90°) and External Rotation (90 °)) and the Surface of the Axillary Vein (Arms Along the Body) Versus the Surface of the Subclavian Vein (Arm Along the Body)</t>
   </si>
   <si>
     <t>Impact on Postoperative Pain of Three Single-use Adult Supraglottic Airway Devices in Short General Anesthetic Under Controlled Ventilation</t>
   </si>
   <si>
-    <t>Ultrasound Comparison of the Surface of the Subclavian Vein (Arm in Abduction (90°) and External Rotation (90 °)) and the Surface of the Axillary Vein (Arms Along the Body) Versus the Surface of the Subclavian Vein (Arm Along the Body)</t>
-  </si>
-  <si>
-    <t>Respiratory Variations in the Diameter of the Inferior Vena Cava With Spontaneous Ventilation: A Physiological Study on Healthy Volunteers</t>
-  </si>
-  <si>
     <t>Coming Out of Anesthesia After Bariatric Surgery : Desflurane Versus Xenon</t>
   </si>
   <si>
     <t>Interface Pressure Measures for Matresses: a Randomized, Cross-over, Non-inferiority Study Comparing the Nimbus 3 Versus Summit Matresses</t>
   </si>
   <si>
+    <t>Lumbar Proprioception in Lower Back Pain Patients Versus Healthy Subjects : a Comparative Study on the Effects of Low- and High-frequency Muscle Vibrations</t>
+  </si>
+  <si>
+    <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
+  </si>
+  <si>
+    <t>Assessment of Quality of Life in Disorders of the Pelvic Floor</t>
+  </si>
+  <si>
+    <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
+  </si>
+  <si>
+    <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
+  </si>
+  <si>
+    <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
+  </si>
+  <si>
     <t>Comparative Study of the Effectiveness of an Equimolar Oxygen-nitrous Oxide Mixture During Physical Therapy for Adhesive Shoulder Capsulitis</t>
   </si>
   <si>
-    <t>Lumbar Proprioception in Lower Back Pain Patients Versus Healthy Subjects : a Comparative Study on the Effects of Low- and High-frequency Muscle Vibrations</t>
-  </si>
-  <si>
-    <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
-  </si>
-  <si>
-    <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
-  </si>
-  <si>
-    <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
-  </si>
-  <si>
-    <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
-  </si>
-  <si>
-    <t>Assessment of Quality of Life in Disorders of the Pelvic Floor</t>
+    <t>The Role of Elastography in the Diagnosis of Thyroid Nodules</t>
+  </si>
+  <si>
+    <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
+  </si>
+  <si>
+    <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
+  </si>
+  <si>
+    <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
+  </si>
+  <si>
+    <t>Impact of Reconstruction Method (Adaptive Statistical Iterative Reconstruction, Filtered Back Projection) Used in Computed Tomography on Bone Single-Photon- Emission-Computed-Tomography/Computed-Tomography Image Quality</t>
+  </si>
+  <si>
+    <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
   </si>
   <si>
     <t>Evaluation of the Mobility of Elderly Patients (&gt; 65 Years) When Using the "l'Ergonome" Mobility Device: a Randomized, Monocentric Study</t>
   </si>
   <si>
-    <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
+    <t>Does the Measurement of Pupillary Reactivity to Painful Stimulation by an Automated Pupillometer Determine the Effectiveness of Local Anesthesia When Undergoing General Anesthesia?</t>
   </si>
   <si>
     <t>Validation of the Measurement of a Systolic Pressure Index at the Toe (IPSO) After a Walking Test</t>
   </si>
   <si>
+    <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
+  </si>
+  <si>
     <t>Implementing Referral Guidelines for Imaging Exams Requested Via the Emergency Department: Impact on Exam Relevance and Associated Delays</t>
   </si>
   <si>
-    <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
-  </si>
-  <si>
-    <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
-  </si>
-  <si>
-    <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
-  </si>
-  <si>
-    <t>Does the Measurement of Pupillary Reactivity to Painful Stimulation by an Automated Pupillometer Determine the Effectiveness of Local Anesthesia When Undergoing General Anesthesia?</t>
-  </si>
-  <si>
-    <t>Impact of Reconstruction Method (Adaptive Statistical Iterative Reconstruction, Filtered Back Projection) Used in Computed Tomography on Bone Single-Photon- Emission-Computed-Tomography/Computed-Tomography Image Quality</t>
-  </si>
-  <si>
-    <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
-  </si>
-  <si>
-    <t>The Role of Elastography in the Diagnosis of Thyroid Nodules</t>
+    <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
+  </si>
+  <si>
+    <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
+  </si>
+  <si>
+    <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
+  </si>
+  <si>
+    <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
+  </si>
+  <si>
+    <t>Evaluation of Brain Damage Resulting From Carotid Endarterectomy With Xenon Anesthesia</t>
+  </si>
+  <si>
+    <t>Efficacity of Taurolock in Preventing Primary Bacterial Peritonitis in Patients Undergoing Peritoneal Dialysis for Renal Insufficiency: a Randomized, Multicenter, Double Blind Study With Placebo</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of a Hydration Protocol "at Thirst" on Natremia of the Ultra Trail du Mont-Blanc, 2015 Runners</t>
+  </si>
+  <si>
+    <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
+  </si>
+  <si>
+    <t>Impact of Multidisciplinary Review of Drug Prescriptions on Patient Safety in a Residence for Dependent Elderly</t>
   </si>
   <si>
     <t>Impact of the Introduction of a New Qualitative Composition of the Evening Meal on the Feeding Behavior of Institutionalized Residents of a Long-term Care Unit: a Randomized, Single Center Study</t>
   </si>
   <si>
-    <t>Impact of Multidisciplinary Review of Drug Prescriptions on Patient Safety in a Residence for Dependent Elderly</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
-  </si>
-  <si>
-    <t>Evaluation of Brain Damage Resulting From Carotid Endarterectomy With Xenon Anesthesia</t>
-  </si>
-  <si>
-    <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
-  </si>
-  <si>
-    <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
-  </si>
-  <si>
-    <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
-  </si>
-  <si>
-    <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
-  </si>
-  <si>
-    <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
-  </si>
-  <si>
-    <t>Efficacity of Taurolock in Preventing Primary Bacterial Peritonitis in Patients Undergoing Peritoneal Dialysis for Renal Insufficiency: a Randomized, Multicenter, Double Blind Study With Placebo</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of a Hydration Protocol "at Thirst" on Natremia of the Ultra Trail du Mont-Blanc, 2015 Runners</t>
+    <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
+  </si>
+  <si>
+    <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
+  </si>
+  <si>
+    <t>Efficacy of the PARI LC Sprint Sp Nebulizer for Acute Asthma Attack in Hospitalized Children Less Than 36 Months of Age</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
+  </si>
+  <si>
+    <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
   </si>
   <si>
     <t>Immuno-modulation in Amyotrophic Lateral Sclerosis- a Phase II Study of Safety and Activity of Low Dose Interleukin-2</t>
   </si>
   <si>
+    <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
+  </si>
+  <si>
     <t>International Normalised Ratio Evaluation by Generalist Practitioners in Full-time Care Establishments for the Elderly: a Pilot Study</t>
   </si>
   <si>
-    <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
-  </si>
-  <si>
-    <t>Efficacy of the PARI LC Sprint Sp Nebulizer for Acute Asthma Attack in Hospitalized Children Less Than 36 Months of Age</t>
+    <t>Comparative Measurements of Interface Pressures Between Two Pressure-ulcer Prevention Mattresses: Softform Premier and Airsoft Duo</t>
+  </si>
+  <si>
+    <t>Impact of a Pharmaceutical Consultation at Hospital Discharge on Adherence to Anti-infective Treatment After Returning Home</t>
+  </si>
+  <si>
+    <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
   </si>
   <si>
     <t>A Randomized Study Evaluating the Role of Ultra-sound Guidance When Drawing Radial Arterial Blood Samples</t>
   </si>
   <si>
-    <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
-  </si>
-  <si>
-    <t>Comparative Measurements of Interface Pressures Between Two Pressure-ulcer Prevention Mattresses: Softform Premier and Airsoft Duo</t>
-  </si>
-  <si>
-    <t>Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée 
- Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée</t>
-  </si>
-  <si>
-    <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
-  </si>
-  <si>
-    <t>Impact of a Pharmaceutical Consultation at Hospital Discharge on Adherence to Anti-infective Treatment After Returning Home</t>
-  </si>
-  <si>
-    <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
-  </si>
-  <si>
-    <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
+    <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
+  </si>
+  <si>
+    <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
+  </si>
+  <si>
+    <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
+  </si>
+  <si>
+    <t>Functional Significance of Complexity Measures in the Sensory-motor Behavior: Are There Potential Clinical Applications?</t>
+  </si>
+  <si>
+    <t>Evaluation of Oxycodone Hydrochloride Versus Intravenous Morphine Hydrochloride for Postoperative Analgesia After Hip Prosthetic Surgery</t>
   </si>
   <si>
     <t>Leukocyte and Platelet Rich Plasma Versus Type a Botulinum Toxin Versus Glucocorticoids for the Treatment of Lateral Epicondylalgia: a Randomized, Multicenter, Double-blind, Therapeutic Trial with Three Parallel Arms</t>
   </si>
   <si>
-    <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
-  </si>
-  <si>
-    <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
-  </si>
-  <si>
     <t>Verifying Anal Sphincter Integrity in the Delivery Room Using a Specific Perineal Ultrasound: Impact on Immediate Care and Postpartum Anal Incontinence Rates in Mothers Undergoing Vaginal Birth</t>
   </si>
   <si>
     <t>Unilateral Selective Neck Dissection at Lymph Node Levels IIa, III and IV Using a Robot-assisted Transaxillary Approach in Patients With Squamous Cell Carcinoma of the Epi-larynx: the First Three Patients</t>
   </si>
   <si>
-    <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
-  </si>
-  <si>
-    <t>Evaluation of Oxycodone Hydrochloride Versus Intravenous Morphine Hydrochloride for Postoperative Analgesia After Hip Prosthetic Surgery</t>
-  </si>
-  <si>
-    <t>Functional Significance of Complexity Measures in the Sensory-motor Behavior: Are There Potential Clinical Applications?</t>
-  </si>
-  <si>
     <t>Modification de l'activité du Cortex préfrontal Induite Par Distraction en réalité Virtuelle Chez le Sujet Lombalgique Chronique.</t>
   </si>
   <si>
+    <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
+  </si>
+  <si>
     <t>Pharmacokinetic Study on Echinocandins for Patients With Septic Shock Following Secondary Peritonitis</t>
   </si>
   <si>
+    <t>Evaluation of the Rotational Stability of the Monofocal SISA Implant Following Cataract Surgery</t>
+  </si>
+  <si>
+    <t>Prospective Randomized Trial Comparing Unilateral and Bilateral Neuromodulation Tests in the Treatment of Refractory Idiopathic Overactive Bladder</t>
+  </si>
+  <si>
+    <t>Brain-computer Interface in the Diagnosis of Disorders of Consciousness</t>
+  </si>
+  <si>
+    <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
+  </si>
+  <si>
     <t>Primary Prevention of Peristomial Hernias Via Parietal Prostheses: a Randomized, Multicentric Study</t>
   </si>
   <si>
-    <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
-  </si>
-  <si>
-    <t>Brain-computer Interface in the Diagnosis of Disorders of Consciousness</t>
+    <t>Relationship Between Complexity and Pain in a Walking Task With Distraction in the Chronic Low Back Pain Patient by Fractal Analysis: Pilot Study</t>
+  </si>
+  <si>
+    <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
   </si>
   <si>
     <t>Comparative Evaluation of Two Techniques for the Treatment of Per-operative Bacteriological Samples Associated With Osteo-articular Sepsis: Grinding (Ultra Turrax) Versus Standard Methods</t>
   </si>
   <si>
-    <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of the Rotational Stability of the Monofocal SISA Implant Following Cataract Surgery</t>
-  </si>
-  <si>
-    <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
-  </si>
-  <si>
-    <t>Relationship Between Complexity and Pain in a Walking Task With Distraction in the Chronic Low Back Pain Patient by Fractal Analysis: Pilot Study</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Trial Comparing Unilateral and Bilateral Neuromodulation Tests in the Treatment of Refractory Idiopathic Overactive Bladder</t>
-  </si>
-  <si>
     <t>Evaluation of the Effects of Ketamine in the Acute Phase of Suicidal Ideation: a Multicenter Randomized Double-blind Trial</t>
   </si>
   <si>
+    <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of Multi-point Intra-mucosal Injections of Cross-linked Hyaluronic Acid (DESIRIAL®) in the Vaginal Vestibule: A Prospective, Bicentric, Pilot Study</t>
+  </si>
+  <si>
+    <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
+  </si>
+  <si>
     <t>Total Hip Arthroplasty Instability and Lumbo-pelvic Kinematics: EOS Imaging Assessment of Variation in Spinal and Pelvic Parameters From Standing to Sitting</t>
   </si>
   <si>
-    <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of Multi-point Intra-mucosal Injections of Cross-linked Hyaluronic Acid (DESIRIAL®) in the Vaginal Vestibule: A Prospective, Bicentric, Pilot Study</t>
-  </si>
-  <si>
-    <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
+    <t>Evaluation of the Impact of a Personalized Program of Adapted Physical Activates in Patients With Parkinson Disease</t>
   </si>
   <si>
     <t>Does the Needle-pilot Device Improve the Success of Vascular Catheterization Compared to the Classical Ultrasound-guided Technique</t>
   </si>
   <si>
-    <t>Evaluation of the Impact of a Personalized Program of Adapted Physical Activates in Patients With Parkinson Disease</t>
+    <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
+  </si>
+  <si>
+    <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Comparison of Ablation of Anisochronous Zones vs Spatio-temporal Dispersal Zones in Addition to Antral Electrical Isolation During Radiofrequency Treatment of Paroxysmal or Persistent Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
+  </si>
+  <si>
+    <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
+  </si>
+  <si>
+    <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic study on echinocandins for patients with septic shock following secondary peritonitis 
+ Etude pharmacocinétique des échinocandines chez les patients en choc septique sur péritonite secondaire</t>
   </si>
   <si>
     <t>Randomized Controlled Trial of Intermittent Hemodialysis With Regional Citrate Anticoagulation Versus Systemic Low Dose Heparin Anticoagulation in Patients at Risk of Bleeding in Nephrology Intensive Care Unit</t>
   </si>
   <si>
-    <t>Comparison of Ablation of Anisochronous Zones vs Spatio-temporal Dispersal Zones in Addition to Antral Electrical Isolation During Radiofrequency Treatment of Paroxysmal or Persistent Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
-  </si>
-  <si>
-    <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
-  </si>
-  <si>
-    <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
-  </si>
-  <si>
-    <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
-  </si>
-  <si>
-    <t>Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques 
- Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques</t>
+    <t>Efficacy and Safety of Low-dose IL-2 (Ld-IL-2) as a Treg Enhancer for Controlling Neuro-inflammation in Newly Diagnosed Amyotrophic Lateral Sclerosis (ALS) Patients: A Randomized, Double-blind, Placebo- Controlled, Phase-II Proof of Concept/ Proof of Mechanism Clinical Trial</t>
+  </si>
+  <si>
+    <t>Effect of Endovascular Inferior Mesenteric Artery Embolization on Colonic Perfusion Prior to Rectal Surgery for Rectal Tumor or Sigmoid Colon Surgery - A Single-center Feasibility Pilot Study.</t>
   </si>
   <si>
     <t>Évaluation Des modalités Optimales de Pilotage et de l'Impact Sur Les capacités de préhension d'Une Stimulation électrique Fonctionnelle Des Muscles Extenseurs Des Doigts Chez le Patient hémiplégique en Phase Chronique</t>
   </si>
   <si>
+    <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
+  </si>
+  <si>
     <t>Erectus Nerve Block for Lumbar Spine Surgery : a Prospective Randomized Study</t>
   </si>
   <si>
-    <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
-  </si>
-  <si>
-    <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
-  </si>
-  <si>
     <t>Evaluation of the Prevalence of Oculomotor Disorders in Patients With Radiologically Isolated Syndrome</t>
   </si>
   <si>
-    <t>Effect of Endovascular Inferior Mesenteric Artery Embolization on Colonic Perfusion Prior to Rectal Surgery for Rectal Tumor or Sigmoid Colon Surgery - A Single-center Feasibility Pilot Study.</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of Low-dose IL-2 (Ld-IL-2) as a Treg Enhancer for Controlling Neuro-inflammation in Newly Diagnosed Amyotrophic Lateral Sclerosis (ALS) Patients: A Randomized, Double-blind, Placebo- Controlled, Phase-II Proof of Concept/ Proof of Mechanism Clinical Trial</t>
+    <t>Optimization of the Self-exclusion Procedure</t>
   </si>
   <si>
     <t>Personalized Dose Optimization of Amikacin Guided by Pharmacokinetic Modeling Software in Patients With Septic Shock</t>
   </si>
   <si>
+    <t>Evaluation of the Ejection Fraction of the Left Ventricle in the Emergency Room by a New Automatic Evaluation Tool in a Pocket Ultrasound Scanner: A Reproducibility Study</t>
+  </si>
+  <si>
+    <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
+  </si>
+  <si>
+    <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Clinical Impact of Pharmaceutical Consultations in Patients Treated for Chronic Obstructive Pulmonary Disease at Home</t>
+  </si>
+  <si>
+    <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
+  </si>
+  <si>
+    <t>Transfer of Frozen Embryos in NATural Cycle: Evaluation of Impact of Spontaneous Versus HCG-triggered Ovulation on Pregnancy Rate - Bicentric Prospective Open Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Assessment of Motor Imaging Skills in Patients With Complex Regional Pain Syndrome (CRPS)</t>
+  </si>
+  <si>
+    <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
+  </si>
+  <si>
+    <t>Comparison of the Effects of 2 Therapeutic Plasmapheresis Techniques: Single Plasma Exchange and Double Filtration Plasmapheresis (DFPP) on Peripheral Lymphocyte Phenotypes in Patients With Chronic Inflammatory Demyelinating Polyradiculoneuropathy (CIDP). A Monocentric Prospective Study With a Single-Case Experimental Design</t>
+  </si>
+  <si>
     <t>Catastrophism in Chronic Inflammatory Rheumatism</t>
   </si>
   <si>
-    <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
-  </si>
-  <si>
-    <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
-  </si>
-  <si>
-    <t>Comparison of the Effects of 2 Therapeutic Plasmapheresis Techniques: Single Plasma Exchange and Double Filtration Plasmapheresis (DFPP) on Peripheral Lymphocyte Phenotypes in Patients With Chronic Inflammatory Demyelinating Polyradiculoneuropathy (CIDP). A Monocentric Prospective Study With a Single-Case Experimental Design</t>
+    <t>Evaluation of the Effect of an Educational and Explanatory Program for a Surgical Act Provided to the Patient Prior to Said Act on Preoperative Anxiety - a Pilot Study at the Nîmes University Hospital on Elective Coronary Angiography</t>
+  </si>
+  <si>
+    <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
   </si>
   <si>
     <t>Prospective Pilot Study of Multi-actor Tolerance Evaluation Using the VIRARE Device (VIrtual Reality Assisted Rehabilitation) in Visually Impaired Patients</t>
@@ -858,52 +953,34 @@
     <t>Evaluation of the Effect of Spirulina-Silicon Supplementation on the Morphological, Biomechanical and Functional Characteristics of the Arterial Wall in the Elderly</t>
   </si>
   <si>
-    <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
-  </si>
-  <si>
-    <t>Optimization of the Self-exclusion Procedure</t>
-  </si>
-  <si>
-    <t>Clinical Impact of Pharmaceutical Consultations in Patients Treated for Chronic Obstructive Pulmonary Disease at Home</t>
-  </si>
-  <si>
-    <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
-  </si>
-  <si>
     <t>Evaluation of the Action of MOBIDERM® on Periarticular Edema After Total Knee Prosthesis - Randomized Controlled Pilot Study</t>
   </si>
   <si>
-    <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Evaluation of the Ejection Fraction of the Left Ventricle in the Emergency Room by a New Automatic Evaluation Tool in a Pocket Ultrasound Scanner: A Reproducibility Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of an Educational and Explanatory Program for a Surgical Act Provided to the Patient Prior to Said Act on Preoperative Anxiety - a Pilot Study at the Nîmes University Hospital on Elective Coronary Angiography</t>
-  </si>
-  <si>
-    <t>Transfer of Frozen Embryos in NATural Cycle: Evaluation of Impact of Spontaneous Versus HCG-triggered Ovulation on Pregnancy Rate - Bicentric Prospective Open Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Assessment of Motor Imaging Skills in Patients With Complex Regional Pain Syndrome (CRPS)</t>
+    <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
+  </si>
+  <si>
+    <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
+  </si>
+  <si>
+    <t>Evaluation of Efficacy of Two Therapeutic Strategies for Cervical Maturation Before Medical Termination: Mechanical Plus Medicinal Maturation vs Medicinal Maturation Alone</t>
+  </si>
+  <si>
+    <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
+  </si>
+  <si>
+    <t>Peripheral Immunological Effects of High-dose Vitamin D Treatment in Healthy Subjects: Randomized, Single-center, Double-blind Trial</t>
+  </si>
+  <si>
+    <t>Comparison of Image Quality Between Ultra-low Dose (ULD) and Standard Dose CT Scans in Detecting Traumatic Brain Injury in the Emergency Room</t>
+  </si>
+  <si>
+    <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
   </si>
   <si>
     <t>PNEUMONIA DOSING IN CRITICALLY ILL PATIENTS A multicentre study to define novel individualised dosing regimens to maximise antibiotic effectiveness for treatment of pneumonia in ICU « French cohort of the PNEUDOS Study »</t>
   </si>
   <si>
-    <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
-  </si>
-  <si>
-    <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
-  </si>
-  <si>
-    <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
-  </si>
-  <si>
-    <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
-  </si>
-  <si>
-    <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
+    <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
   </si>
   <si>
     <t>Screening Anti-Fungal Exposure in Intensive Care Units – The French Cohort</t>
@@ -913,7 +990,13 @@
  Efficacité analgésique du bloc des érecteurs du rachis pour arthrodèse rachidienne lombaire : étude comparative contre placébo</t>
   </si>
   <si>
-    <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
+    <t>Performance Measurement and Safety Evaluation of the PYTHEAS® ODYSSEE Angular Assistance System for Intra-pedicular Screw Placement in Adult Spine Surgery. First-in-human Study</t>
+  </si>
+  <si>
+    <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
+  </si>
+  <si>
+    <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
   </si>
   <si>
     <t>An Evaluation Study on the Performance of a Guided Clinical Pharmacy Consultation for Patients With Multiple Myeloma Following Their First Oral Anticancer Treatment</t>
@@ -922,312 +1005,338 @@
     <t>Complications Associated With Promontofixation for Pelvic Organ Prolapse: a Randomized Trial Comparing Robot Assisted Laparoscopic and Non-robot Assisted Laparoscopic Surgical Procedures</t>
   </si>
   <si>
-    <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
-  </si>
-  <si>
-    <t>Peripheral Immunological Effects of High-dose Vitamin D Treatment in Healthy Subjects: Randomized, Single-center, Double-blind Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Efficacy of Two Therapeutic Strategies for Cervical Maturation Before Medical Termination: Mechanical Plus Medicinal Maturation vs Medicinal Maturation Alone</t>
-  </si>
-  <si>
-    <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
-  </si>
-  <si>
-    <t>Performance Measurement and Safety Evaluation of the PYTHEAS® ODYSSEE Angular Assistance System for Intra-pedicular Screw Placement in Adult Spine Surgery. First-in-human Study</t>
-  </si>
-  <si>
-    <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
-  </si>
-  <si>
-    <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
+    <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
+  </si>
+  <si>
+    <t>Anticoagulation Alone Versus Anticoagulation and Aspirin Following Transcatheter Aortic Valve Interventions - an Open, Multicenter Randomized Controlled Trial With Two Parallel Arms (1:1)</t>
+  </si>
+  <si>
+    <t>Evaluation of the Concordance in the Diagnosis of Periodontitis in Diabetic Patients Between an Indirect Method Based on a Photograph of the Oral Cavity and a Direct Method Based on the Clinical Examination of This Oral Cavity (Reference).</t>
   </si>
   <si>
     <t>Descriptive Pilot Study of the Effects of a Standardized Neuromodulation Program on Cortical Brain Function in Chronic Low Back Pain Patients</t>
   </si>
   <si>
-    <t>Anticoagulation Alone Versus Anticoagulation and Aspirin Following Transcatheter Aortic Valve Interventions - an Open, Multicenter Randomized Controlled Trial With Two Parallel Arms (1:1)</t>
-  </si>
-  <si>
-    <t>Evaluation of the Safety and Performance of the MILTA GYNECO Vaginal Probe in Postmenopausal Women With Vaginal Atrophy Resistant to All Non-invasive Therapies for More Than 3 Months - Pilot Study of First Use in Females</t>
-  </si>
-  <si>
-    <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
-  </si>
-  <si>
-    <t>Prevention of Pneumococcal Infections: Impact Collaborative Medico-pharmaceutical Care Structured to Improve Vaccination Coverage of Patients At Risk.</t>
+    <t>Evaluation of Changes in the Immunological Microenvironment Surrounding Subcutaneous Breast Cancer Metastases After Liquid Nitrogen Cryotherapy: Descriptive Pilot Study.</t>
+  </si>
+  <si>
+    <t>Concordance of Image Quality Between an Ultra-Low Dose (ULD) Scanner and Standard Dose Conventional Scanner for Thoraco-abdominopelvic Scans</t>
   </si>
   <si>
     <t>Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle  
  Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle</t>
   </si>
   <si>
+    <t>Evaluation of the Safety and Performance of the MILTA GYNECO Vaginal Probe in Postmenopausal Women With Vaginal Atrophy Resistant to All Non-invasive Therapies for More Than 3 Months - Pilot Study of First Use in Females</t>
+  </si>
+  <si>
+    <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
+  </si>
+  <si>
+    <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
+  </si>
+  <si>
     <t>Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI) 
  Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI)</t>
   </si>
   <si>
+    <t>Study of Prostate Perfusion Before Embolization in Patients With Symptomatic Prostate Adenoma. A Single-center Prospective Cohort Pilot Study to Determine the Predictive Factors of Clinical Efficacy Associated With a Prior Phantom Study.</t>
+  </si>
+  <si>
+    <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
+  </si>
+  <si>
+    <t>Prevention of Pneumococcal Infections: Impact Collaborative Medico-pharmaceutical Care Structured to Improve Vaccination Coverage of Patients At Risk.</t>
+  </si>
+  <si>
+    <t>Psilocybin in Alcohol Use Disorder with Comorbid Depression</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Training Healthcare Teams (Quality Improvement Project) in the Combined Use of AoA Carestation Software and Digital Intraoperative Monitoring Tools (State Entropy, Surgical Pleth Index and Train-of-Four) During General Anesthesia for Intermediate- or Major-risk Surgery on Patient Morbidity and Mortality At 28 Days</t>
+  </si>
+  <si>
+    <t>Place des inhibiteurs de la transcriptase inverse dans le traitement du psoriasis :_x000D_ Essai « preuve de concept biologique »_x000D_ 
+ Place des inhibiteurs de la transcriptase inverse dans le traitement du psoriasis :_x000D_ Essai « preuve de concept biologique »</t>
+  </si>
+  <si>
     <t>Evaluation of the patient postoperative experience of two modes of WALANT-type anesthesia (lidocaine alone or combined with ropivacaine) used in ambulatory upper-extremity surgery 
  Evaluation de l’effet sur le vécu post opératoire de deux modes d’anesthésie de type WALANT (lidocaïne seule ou associée à la ropivacaïne) utilisés en chirurgie ambulatoire du membre supérieur</t>
   </si>
   <si>
-    <t>La TEP-TDM au 18F-FDG : permet-elle d’optimiser les résultats de la scintigraphie à la I123-MIBG dans la recherche d’éléments discriminants pour l’implantation d’un défibrillateur implantable, en prévention primaire, chez les patients porteurs d’une insuffisance cardiaque d’origine ischémique ?</t>
-  </si>
-  <si>
-    <t>Etude comparative de l’efficacité articulaire et fonctionnelle du Mélange Equimoléculaire Oxygène-Protoxyde d’Azote (MEOPA) dans la rééducation des capsulites rétractiles d'épaule.</t>
+    <t>EPREX</t>
   </si>
   <si>
     <t>VTT</t>
   </si>
   <si>
-    <t>EPREX</t>
+    <t>AnatoAbord</t>
   </si>
   <si>
     <t>DISPOSITIF LAR</t>
   </si>
   <si>
-    <t>AnatoAbord</t>
-  </si>
-  <si>
     <t>XENON</t>
   </si>
   <si>
+    <t>Vibrioception</t>
+  </si>
+  <si>
+    <t>U-GYN-QOL</t>
+  </si>
+  <si>
+    <t>EPICORE</t>
+  </si>
+  <si>
     <t>MEOPA</t>
   </si>
   <si>
-    <t>Vibrioception</t>
-  </si>
-  <si>
-    <t>EPICORE</t>
-  </si>
-  <si>
-    <t>U-GYN-QOL</t>
+    <t>EDDRA-Repro</t>
+  </si>
+  <si>
+    <t>AsirTest</t>
+  </si>
+  <si>
+    <t>NosoPink</t>
   </si>
   <si>
     <t>L'ERGONOME</t>
   </si>
   <si>
-    <t>NosoPink</t>
+    <t>ALGISCAN</t>
   </si>
   <si>
     <t>IPSO FACTO</t>
   </si>
   <si>
+    <t>LAPRA</t>
+  </si>
+  <si>
     <t>RIU</t>
   </si>
   <si>
-    <t>EDDRA-Repro</t>
-  </si>
-  <si>
-    <t>ALGISCAN</t>
-  </si>
-  <si>
-    <t>AsirTest</t>
-  </si>
-  <si>
-    <t>LAPRA</t>
+    <t>RopiMol</t>
+  </si>
+  <si>
+    <t>PRO-CURE II</t>
+  </si>
+  <si>
+    <t>BBBox</t>
+  </si>
+  <si>
+    <t>SensiCare</t>
+  </si>
+  <si>
+    <t>NATRITRAIL</t>
+  </si>
+  <si>
+    <t>ZENKER LS</t>
+  </si>
+  <si>
+    <t>Rev-EHPAD</t>
   </si>
   <si>
     <t>IRCAR</t>
   </si>
   <si>
-    <t>Rev-EHPAD</t>
-  </si>
-  <si>
-    <t>SensiCare</t>
-  </si>
-  <si>
-    <t>PRO-CURE II</t>
-  </si>
-  <si>
-    <t>BBBox</t>
-  </si>
-  <si>
-    <t>ZENKER LS</t>
-  </si>
-  <si>
-    <t>RopiMol</t>
-  </si>
-  <si>
-    <t>NATRITRAIL</t>
+    <t>MEDREV</t>
+  </si>
+  <si>
+    <t>LC SPRINT Sp</t>
+  </si>
+  <si>
+    <t>OUPS</t>
+  </si>
+  <si>
+    <t>OPTI-PP</t>
+  </si>
+  <si>
+    <t>ERASM</t>
+  </si>
+  <si>
+    <t>VIDADO</t>
   </si>
   <si>
     <t>IMODALS</t>
   </si>
   <si>
+    <t>QALCIMUM</t>
+  </si>
+  <si>
     <t>INR-Cap pilote</t>
   </si>
   <si>
-    <t>QALCIMUM</t>
-  </si>
-  <si>
-    <t>LC SPRINT Sp</t>
+    <t>SPA2-INVACARE</t>
+  </si>
+  <si>
+    <t>CPS-INFECTIO</t>
+  </si>
+  <si>
+    <t>PDT-Bactério</t>
   </si>
   <si>
     <t>ECHO-PARDIF</t>
   </si>
   <si>
-    <t>VIDADO</t>
-  </si>
-  <si>
-    <t>SPA2-INVACARE</t>
-  </si>
-  <si>
-    <t>VIDADO 
- VIDADO</t>
-  </si>
-  <si>
-    <t>PDT-Bactério</t>
-  </si>
-  <si>
-    <t>MEDREV</t>
-  </si>
-  <si>
-    <t>OPTI-PP</t>
-  </si>
-  <si>
-    <t>ERASM</t>
-  </si>
-  <si>
-    <t>CPS-INFECTIO</t>
-  </si>
-  <si>
-    <t>OUPS</t>
+    <t>STRATOS</t>
+  </si>
+  <si>
+    <t>AUREVI 1</t>
+  </si>
+  <si>
+    <t>EDDRAPro</t>
+  </si>
+  <si>
+    <t>NEURO COMP</t>
   </si>
   <si>
     <t>LET</t>
   </si>
   <si>
-    <t>EDDRAPro</t>
-  </si>
-  <si>
-    <t>AUREVI 1</t>
-  </si>
-  <si>
     <t>OASIS 2</t>
   </si>
   <si>
     <t>RoboCurage ORL</t>
   </si>
   <si>
-    <t>STRATOS</t>
-  </si>
-  <si>
-    <t>NEURO COMP</t>
-  </si>
-  <si>
     <t>NGUYEN</t>
   </si>
   <si>
+    <t>JI vs SC</t>
+  </si>
+  <si>
+    <t>SISALens</t>
+  </si>
+  <si>
+    <t>HAVIR Bi</t>
+  </si>
+  <si>
+    <t>AWAKE</t>
+  </si>
+  <si>
+    <t>IMOOVE IT</t>
+  </si>
+  <si>
     <t>GRECCAR 07</t>
   </si>
   <si>
-    <t>JI vs SC</t>
-  </si>
-  <si>
-    <t>AWAKE</t>
+    <t>CoDiLoBP</t>
+  </si>
+  <si>
+    <t>AlvéCare</t>
   </si>
   <si>
     <t>IOAP Turrax</t>
   </si>
   <si>
-    <t>AlvéCare</t>
-  </si>
-  <si>
-    <t>SISALens</t>
-  </si>
-  <si>
-    <t>IMOOVE IT</t>
-  </si>
-  <si>
-    <t>CoDiLoBP</t>
-  </si>
-  <si>
-    <t>HAVIR Bi</t>
-  </si>
-  <si>
     <t>KETIS</t>
   </si>
   <si>
+    <t>CAPEMBOL</t>
+  </si>
+  <si>
+    <t>JECICA</t>
+  </si>
+  <si>
+    <t>INREG 1</t>
+  </si>
+  <si>
+    <t>TrainStrain</t>
+  </si>
+  <si>
     <t>HIPEOS</t>
   </si>
   <si>
-    <t>TrainStrain</t>
-  </si>
-  <si>
-    <t>INREG 1</t>
-  </si>
-  <si>
-    <t>CAPEMBOL</t>
-  </si>
-  <si>
-    <t>JECICA</t>
+    <t>ACTIPARK</t>
   </si>
   <si>
     <t>NEEDLE-VISIO</t>
   </si>
   <si>
-    <t>ACTIPARK</t>
+    <t>US ENMG</t>
+  </si>
+  <si>
+    <t>APS Follow Up</t>
+  </si>
+  <si>
+    <t>Shock-ED</t>
+  </si>
+  <si>
+    <t>ISOCHRONE-AF</t>
+  </si>
+  <si>
+    <t>CalciCoach</t>
+  </si>
+  <si>
+    <t>S100B-Céph</t>
+  </si>
+  <si>
+    <t>AUTO-VTI</t>
+  </si>
+  <si>
+    <t>EPI Study</t>
   </si>
   <si>
     <t>ROBIN</t>
   </si>
   <si>
-    <t>ISOCHRONE-AF</t>
-  </si>
-  <si>
-    <t>US ENMG</t>
-  </si>
-  <si>
-    <t>S100B-Céph</t>
-  </si>
-  <si>
-    <t>CalciCoach</t>
-  </si>
-  <si>
-    <t>AUTO-VTI</t>
-  </si>
-  <si>
-    <t>Shock-ED</t>
-  </si>
-  <si>
-    <t>APS Follow Up</t>
-  </si>
-  <si>
-    <t>GenCInib-suni 
- GenCInib-suni</t>
+    <t>MIROCALS</t>
+  </si>
+  <si>
+    <t>AMIREMBOL</t>
   </si>
   <si>
     <t>PREHENSTROKE</t>
   </si>
   <si>
+    <t>SFATI GROPE</t>
+  </si>
+  <si>
     <t>EFABE</t>
   </si>
   <si>
-    <t>SFATI GROPE</t>
-  </si>
-  <si>
     <t>OCRIS</t>
   </si>
   <si>
-    <t>AMIREMBOL</t>
-  </si>
-  <si>
-    <t>MIROCALS</t>
+    <t>OSE</t>
   </si>
   <si>
     <t>AMINO BESTDOSE</t>
   </si>
   <si>
+    <t>ReproAuto_FEVG</t>
+  </si>
+  <si>
+    <t>PSORTI-BIO</t>
+  </si>
+  <si>
+    <t>LUNGSTRAIN</t>
+  </si>
+  <si>
+    <t>BPCObs</t>
+  </si>
+  <si>
+    <t>IL-MAI</t>
+  </si>
+  <si>
+    <t>TECNAT</t>
+  </si>
+  <si>
+    <t>ImagNimes</t>
+  </si>
+  <si>
+    <t>CONCORDANCEVEF</t>
+  </si>
+  <si>
+    <t>LYMPHOARESIS</t>
+  </si>
+  <si>
     <t>CRIC</t>
   </si>
   <si>
-    <t>CONCORDANCEVEF</t>
-  </si>
-  <si>
-    <t>PSORTI-BIO</t>
-  </si>
-  <si>
-    <t>LYMPHOARESIS</t>
+    <t>HEART-LINK</t>
+  </si>
+  <si>
+    <t>BEAUTIFY-2</t>
   </si>
   <si>
     <t>VIRARE</t>
@@ -1236,52 +1345,35 @@
     <t>ANGIO SPIRUL</t>
   </si>
   <si>
-    <t>BEAUTIFY-2</t>
-  </si>
-  <si>
-    <t>OSE</t>
-  </si>
-  <si>
-    <t>BPCObs</t>
-  </si>
-  <si>
-    <t>IL-MAI</t>
-  </si>
-  <si>
     <t>MOBŒDEM</t>
   </si>
   <si>
-    <t>LUNGSTRAIN</t>
-  </si>
-  <si>
-    <t>ReproAuto_FEVG</t>
-  </si>
-  <si>
-    <t>HEART-LINK</t>
-  </si>
-  <si>
-    <t>TECNAT</t>
-  </si>
-  <si>
-    <t>ImagNimes</t>
+    <t>D-Lay-MS</t>
+  </si>
+  <si>
+    <t>JITTOX</t>
+  </si>
+  <si>
+    <t>IMEGYN</t>
+  </si>
+  <si>
+    <t>VAGIBIOTE</t>
+  </si>
+  <si>
+    <t>VDSS</t>
+  </si>
+  <si>
+    <t>ULD-CRANE 2</t>
+  </si>
+  <si>
+    <t>AMINO BESTDOSE 
+ AMINO BESTDOSE</t>
   </si>
   <si>
     <t>French PNEUDOS Study</t>
   </si>
   <si>
-    <t>GT-PT</t>
-  </si>
-  <si>
-    <t>D-Lay-MS</t>
-  </si>
-  <si>
-    <t>VAGIBIOTE</t>
-  </si>
-  <si>
-    <t>OPTIFLUID</t>
-  </si>
-  <si>
-    <t>IRACTIV</t>
+    <t>ROPIWA</t>
   </si>
   <si>
     <t>French SAFE ICU Study</t>
@@ -1291,8 +1383,13 @@
  EFABE</t>
   </si>
   <si>
-    <t>AMINO BESTDOSE 
- AMINO BESTDOSE</t>
+    <t>ODYSSEE</t>
+  </si>
+  <si>
+    <t>OPTIFLUID</t>
+  </si>
+  <si>
+    <t>GT-PT</t>
   </si>
   <si>
     <t>CPS MYELOME</t>
@@ -1301,59 +1398,72 @@
     <t>RoboLaps</t>
   </si>
   <si>
-    <t>ROPIWA</t>
-  </si>
-  <si>
-    <t>VDSS</t>
-  </si>
-  <si>
-    <t>IMEGYN</t>
-  </si>
-  <si>
-    <t>JITTOX</t>
-  </si>
-  <si>
-    <t>ODYSSEE</t>
-  </si>
-  <si>
-    <t>BEAUTIFY-3</t>
-  </si>
-  <si>
-    <t>CHEK BAC</t>
+    <t>IRACTIV</t>
+  </si>
+  <si>
+    <t>AVATAR</t>
+  </si>
+  <si>
+    <t>PARODIABNOSTIC</t>
   </si>
   <si>
     <t>NEMOLOC</t>
   </si>
   <si>
-    <t>AVATAR</t>
-  </si>
-  <si>
-    <t>SIVAM</t>
-  </si>
-  <si>
-    <t>VACTICOV2</t>
-  </si>
-  <si>
-    <t>OPTIVACC</t>
+    <t>CRIMCAS</t>
+  </si>
+  <si>
+    <t>UL2DLR</t>
   </si>
   <si>
     <t>VDSS 
  VDSS</t>
   </si>
   <si>
+    <t>SIVAM</t>
+  </si>
+  <si>
+    <t>VACTICOV2</t>
+  </si>
+  <si>
+    <t>CHEK BAC</t>
+  </si>
+  <si>
     <t>D-Lay MS 
  D-Lay MS</t>
   </si>
   <si>
+    <t>EMBOPERF</t>
+  </si>
+  <si>
+    <t>BEAUTIFY-3</t>
+  </si>
+  <si>
+    <t>OPTIVACC</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>AoA QUALITY</t>
+  </si>
+  <si>
+    <t>PSORTI-BIO  
+ PSORTI-BIO</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -1370,6 +1480,9 @@
   </si>
   <si>
     <t>COMBINATION_PRODUCT</t>
+  </si>
+  <si>
+    <t>RADIATION</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1773,13 +1886,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1792,14 +1905,17 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="I3" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1813,13 +1929,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1829,17 +1945,17 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
+      <c r="D5" t="s">
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1849,20 +1965,17 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="D6" t="s">
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" t="s">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="I6" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1873,19 +1986,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" t="s">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1896,42 +2006,42 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="I8" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1942,39 +2052,39 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H11" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1985,39 +2095,45 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>208</v>
+      </c>
+      <c r="H12" t="s">
+        <v>350</v>
       </c>
       <c r="I12" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="I13" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2028,19 +2144,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H14" t="s">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I14" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2051,16 +2164,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>211</v>
+      </c>
+      <c r="H15" t="s">
+        <v>352</v>
       </c>
       <c r="I15" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2071,59 +2187,59 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="I16" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>213</v>
+      </c>
+      <c r="H17" t="s">
+        <v>353</v>
       </c>
       <c r="I17" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="I18" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2134,19 +2250,16 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="I19" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2157,42 +2270,45 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="I20" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="H21" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2203,62 +2319,59 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="I22" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="I23" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="I24" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2269,16 +2382,19 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>221</v>
+      </c>
+      <c r="H25" t="s">
+        <v>356</v>
       </c>
       <c r="I25" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2289,19 +2405,19 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="H26" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="I26" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2312,19 +2428,19 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="I27" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2335,19 +2451,19 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="I28" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2358,19 +2474,19 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="I29" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2381,16 +2497,19 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>204</v>
+        <v>226</v>
+      </c>
+      <c r="H30" t="s">
+        <v>361</v>
       </c>
       <c r="I30" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2401,19 +2520,19 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="I31" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2424,42 +2543,45 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="I32" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="H33" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="I33" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2470,16 +2592,19 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>230</v>
+      </c>
+      <c r="H34" t="s">
+        <v>365</v>
       </c>
       <c r="I34" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2490,42 +2615,39 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="I35" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" t="s">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2536,62 +2658,62 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="I37" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="I38" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" t="s">
-        <v>341</v>
+        <v>235</v>
       </c>
       <c r="I39" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2602,16 +2724,19 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
-        <v>214</v>
+        <v>236</v>
+      </c>
+      <c r="H40" t="s">
+        <v>368</v>
       </c>
       <c r="I40" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2622,42 +2747,42 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="I41" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="H42" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="I42" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2668,111 +2793,108 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="H43" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="I43" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="H44" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="I44" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="I45" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G46" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="I46" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="I47" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2783,19 +2905,19 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="I48" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2805,63 +2927,72 @@
       <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>149</v>
+      <c r="C49" t="s">
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>350</v>
+        <v>376</v>
+      </c>
+      <c r="I49" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
       </c>
       <c r="F51" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2872,19 +3003,19 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2895,19 +3026,19 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="H53" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2918,39 +3049,42 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="H54" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="I54" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>251</v>
+      </c>
+      <c r="H55" t="s">
+        <v>382</v>
       </c>
       <c r="I55" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2961,42 +3095,45 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
       </c>
       <c r="F56" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="H56" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="I56" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="H57" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="I57" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3007,19 +3144,19 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="H58" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="I58" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3030,19 +3167,19 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H59" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="I59" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3053,19 +3190,19 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G60" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="I60" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3076,19 +3213,19 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="H61" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="I61" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3099,19 +3236,19 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
-      </c>
-      <c r="H62" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="I62" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3122,16 +3259,22 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>259</v>
+      </c>
+      <c r="H63" t="s">
+        <v>389</v>
       </c>
       <c r="I63" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3142,19 +3285,19 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H64" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3165,19 +3308,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="H65" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="I65" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3188,39 +3331,42 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>262</v>
+      </c>
+      <c r="H66" t="s">
+        <v>392</v>
       </c>
       <c r="I66" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="H67" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="I67" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3231,19 +3377,16 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G68" t="s">
-        <v>242</v>
-      </c>
-      <c r="H68" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="I68" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3254,19 +3397,19 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="H69" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="I69" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3277,42 +3420,42 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="H70" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="I70" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="H71" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="I71" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3323,42 +3466,42 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="H72" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G73" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="H73" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="I73" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3369,88 +3512,91 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="H74" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="I74" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H75" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="I75" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G76" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="H76" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="I76" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
       </c>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="H77" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="I77" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3461,42 +3607,39 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="H78" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="I78" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>170</v>
-      </c>
-      <c r="G79" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="H79" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="I79" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3507,39 +3650,42 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G80" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H80" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="I80" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>170</v>
+        <v>191</v>
+      </c>
+      <c r="G81" t="s">
+        <v>276</v>
       </c>
       <c r="H81" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="I81" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3550,19 +3696,19 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H82" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="I82" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3573,19 +3719,19 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G83" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="H83" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="I83" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3596,19 +3742,19 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="H84" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="I84" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3619,19 +3765,19 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G85" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="H85" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="I85" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3642,19 +3788,19 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G86" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="H86" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="I86" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3665,19 +3811,19 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G87" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="H87" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="I87" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3688,19 +3834,19 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="H88" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="I88" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3711,19 +3857,19 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G89" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="H89" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="I89" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3734,19 +3880,19 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="H90" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="I90" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3757,19 +3903,19 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G91" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="H91" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="I91" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3780,16 +3926,19 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="H92" t="s">
-        <v>390</v>
+        <v>417</v>
+      </c>
+      <c r="I92" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3800,19 +3949,19 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G93" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H93" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="I93" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3823,19 +3972,19 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="H94" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="I94" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3846,62 +3995,62 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G95" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="H95" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="I95" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G96" t="s">
-        <v>269</v>
+        <v>291</v>
+      </c>
+      <c r="H96" t="s">
+        <v>421</v>
       </c>
       <c r="I96" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G97" t="s">
-        <v>270</v>
-      </c>
-      <c r="H97" t="s">
-        <v>394</v>
+        <v>292</v>
       </c>
       <c r="I97" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3912,19 +4061,19 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G98" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H98" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="I98" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3935,19 +4084,19 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F99" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G99" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="H99" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="I99" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3958,19 +4107,19 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F100" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G100" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="H100" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="I100" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3981,19 +4130,19 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G101" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H101" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="I101" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4004,19 +4153,19 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F102" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G102" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="H102" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="I102" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4027,42 +4176,42 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G103" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="H103" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="I103" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F104" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G104" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="H104" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="I104" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4073,19 +4222,19 @@
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G105" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="H105" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="I105" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4096,19 +4245,19 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F106" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G106" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="H106" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="I106" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4119,19 +4268,19 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G107" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="H107" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="I107" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4142,19 +4291,19 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G108" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="H108" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="I108" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4165,19 +4314,19 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G109" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="H109" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="I109" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4188,42 +4337,42 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F110" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G110" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="H110" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="I110" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G111" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="H111" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="I111" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4234,19 +4383,19 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G112" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="H112" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="I112" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4257,19 +4406,19 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G113" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="H113" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="I113" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4280,19 +4429,19 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G114" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="H114" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="I114" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4303,19 +4452,19 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G115" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="H115" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="I115" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4326,19 +4475,19 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G116" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="H116" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="I116" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4348,17 +4497,20 @@
       <c r="B117" t="s">
         <v>13</v>
       </c>
-      <c r="D117" t="s">
-        <v>151</v>
+      <c r="C117" t="s">
+        <v>129</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G117" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="H117" t="s">
-        <v>414</v>
+        <v>441</v>
+      </c>
+      <c r="I117" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4371,17 +4523,20 @@
       <c r="C118" t="s">
         <v>130</v>
       </c>
+      <c r="D118" t="s">
+        <v>171</v>
+      </c>
       <c r="F118" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G118" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="H118" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="I118" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4395,16 +4550,16 @@
         <v>131</v>
       </c>
       <c r="F119" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G119" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="H119" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="I119" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4418,16 +4573,16 @@
         <v>132</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G120" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H120" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="I120" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4441,16 +4596,16 @@
         <v>133</v>
       </c>
       <c r="F121" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G121" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="H121" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="I121" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4464,16 +4619,16 @@
         <v>134</v>
       </c>
       <c r="F122" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G122" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="H122" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="I122" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4483,17 +4638,20 @@
       <c r="B123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" t="s">
-        <v>152</v>
+      <c r="C123" t="s">
+        <v>135</v>
       </c>
       <c r="F123" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G123" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="H123" t="s">
-        <v>420</v>
+        <v>447</v>
+      </c>
+      <c r="I123" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4504,16 +4662,19 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G124" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="H124" t="s">
-        <v>421</v>
+        <v>448</v>
+      </c>
+      <c r="I124" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4524,16 +4685,19 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F125" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G125" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="H125" t="s">
-        <v>422</v>
+        <v>449</v>
+      </c>
+      <c r="I125" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4544,19 +4708,19 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F126" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G126" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="H126" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="I126" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4566,20 +4730,20 @@
       <c r="B127" t="s">
         <v>13</v>
       </c>
-      <c r="C127" t="s">
-        <v>136</v>
+      <c r="D127" t="s">
+        <v>174</v>
       </c>
       <c r="F127" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G127" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H127" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="I127" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4589,20 +4753,20 @@
       <c r="B128" t="s">
         <v>13</v>
       </c>
-      <c r="C128" t="s">
-        <v>137</v>
+      <c r="D128" t="s">
+        <v>175</v>
       </c>
       <c r="F128" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G128" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="H128" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="I128" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4613,19 +4777,19 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F129" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G129" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H129" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="I129" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4636,19 +4800,19 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F130" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G130" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="H130" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="I130" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4659,19 +4823,19 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F131" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G131" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H131" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="I131" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4682,19 +4846,19 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F132" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G132" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H132" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="I132" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4705,19 +4869,19 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F133" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G133" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="H133" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="I133" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4728,19 +4892,19 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F134" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G134" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="H134" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="I134" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4751,19 +4915,22 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="D135" t="s">
+        <v>176</v>
       </c>
       <c r="F135" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G135" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="H135" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="I135" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4774,19 +4941,19 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F136" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G136" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="H136" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="I136" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4797,19 +4964,19 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G137" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="H137" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="I137" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4820,19 +4987,19 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F138" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G138" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="H138" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="I138" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4843,19 +5010,19 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G139" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="H139" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="I139" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4866,16 +5033,19 @@
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F140" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G140" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="H140" t="s">
-        <v>437</v>
+        <v>464</v>
+      </c>
+      <c r="I140" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4885,17 +5055,20 @@
       <c r="B141" t="s">
         <v>13</v>
       </c>
-      <c r="D141" t="s">
-        <v>156</v>
+      <c r="C141" t="s">
+        <v>148</v>
       </c>
       <c r="F141" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G141" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="H141" t="s">
-        <v>438</v>
+        <v>465</v>
+      </c>
+      <c r="I141" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4905,14 +5078,20 @@
       <c r="B142" t="s">
         <v>13</v>
       </c>
-      <c r="D142" t="s">
-        <v>157</v>
+      <c r="C142" t="s">
+        <v>149</v>
+      </c>
+      <c r="F142" t="s">
+        <v>196</v>
       </c>
       <c r="G142" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="H142" t="s">
-        <v>425</v>
+        <v>466</v>
+      </c>
+      <c r="I142" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4922,11 +5101,20 @@
       <c r="B143" t="s">
         <v>13</v>
       </c>
-      <c r="D143" t="s">
-        <v>158</v>
+      <c r="C143" t="s">
+        <v>150</v>
+      </c>
+      <c r="F143" t="s">
+        <v>196</v>
       </c>
       <c r="G143" t="s">
-        <v>316</v>
+        <v>338</v>
+      </c>
+      <c r="H143" t="s">
+        <v>467</v>
+      </c>
+      <c r="I143" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4937,10 +5125,174 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>178</v>
+      </c>
+      <c r="F144" t="s">
+        <v>196</v>
       </c>
       <c r="G144" t="s">
-        <v>317</v>
+        <v>339</v>
+      </c>
+      <c r="H144" t="s">
+        <v>468</v>
+      </c>
+      <c r="I144" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" t="s">
+        <v>340</v>
+      </c>
+      <c r="H145" t="s">
+        <v>469</v>
+      </c>
+      <c r="I145" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F146" t="s">
+        <v>196</v>
+      </c>
+      <c r="G146" t="s">
+        <v>341</v>
+      </c>
+      <c r="H146" t="s">
+        <v>470</v>
+      </c>
+      <c r="I146" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+      <c r="F147" t="s">
+        <v>196</v>
+      </c>
+      <c r="G147" t="s">
+        <v>342</v>
+      </c>
+      <c r="H147" t="s">
+        <v>471</v>
+      </c>
+      <c r="I147" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>154</v>
+      </c>
+      <c r="F148" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" t="s">
+        <v>343</v>
+      </c>
+      <c r="H148" t="s">
+        <v>472</v>
+      </c>
+      <c r="I148" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+      <c r="F149" t="s">
+        <v>197</v>
+      </c>
+      <c r="G149" t="s">
+        <v>344</v>
+      </c>
+      <c r="H149" t="s">
+        <v>473</v>
+      </c>
+      <c r="I149" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>179</v>
+      </c>
+      <c r="G150" t="s">
+        <v>345</v>
+      </c>
+      <c r="H150" t="s">
+        <v>474</v>
+      </c>
+      <c r="I150" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>180</v>
+      </c>
+      <c r="G151" t="s">
+        <v>346</v>
+      </c>
+      <c r="H151" t="s">
+        <v>450</v>
+      </c>
+      <c r="I151" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
